--- a/scraped_codes.xlsx
+++ b/scraped_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,22 +448,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-wiring-harness-market</t>
+          <t>https://www.skyquestt.com/report/cell-culture-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>SQMIG25A2164</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.skyquestt.com/report/cell-culture-market</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
         <is>
           <t>SQMIG35H2257</t>
         </is>

--- a/scraped_codes.xlsx
+++ b/scraped_codes.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-culture-market</t>
+          <t>https://www.skyquestt.com/report/application-container-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG35H2257</t>
+          <t>SQMIG45E2082</t>
         </is>
       </c>
     </row>

--- a/scraped_codes.xlsx
+++ b/scraped_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +448,1200 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/application-container-market</t>
+          <t>https://www.skyquestt.com/report/recombinant-protein-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG45E2082</t>
+          <t>SQMIG35H2039</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bioreactors-market</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SQMIG35H2293</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/herbal-supplements-market</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SQMIG35I2351</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fitness-tracker-market</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SQMIG35J2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/live-cell-imaging-market</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SQMIG35H2292</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-equipment-maintenance-market</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SQMIG35D2261</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/livestock-monitoring-market</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SQMIG35G2298</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radiofrequency-ablation-devices-market</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SQMIG35A2903</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/orphan-drug-market</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SQMIG30A2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biochip-market</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SQMIG45A2235</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/insulin-market</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SQMIG35A2943</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/breathable-films-market</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SQMIG35A2942</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-radiation-shielding-market</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SQMIG35H2295</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/auto-injector-market</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SQMIG35B2104</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/veterinary-imaging-market</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SQMIG35G2299</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/stem-cell-banking-market</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SQMIG35H2294</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/botox-market</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SQMIG35H2296</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/process-analyzer-market</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SQMIG35I2353</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/laboratory-information-system-market</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SQMIG35C2028</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/scar-treatment-market</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SQMIG35A2949</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/body-composition-analyzers-market</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SQMIG35A2946</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/healthcare-supply-chain-management-market</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SQMIG35D2272</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/physiotherapy-equipment-market</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SQMIG35A2945</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radiation-oncology-market</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SQMIG35A2944</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/weight-management-market</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SQMIG35A2948</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/healthcare-analytical-testing-services-market</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SQMIG35D2273</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/breast-reconstruction-market</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SQMIG35A2947</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-chromatography-market</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SQMIG35G2292</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/immunotherapy-drugs-market</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SQMIG35I2354</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vitamin-d-testing-market</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SQMIG35B2215</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/protein-a-resin-market</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQMIG35H2301</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cardiac-biomarkers-market</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SQMIG35A2951</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/healthcare-packaging-market</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SQMIG15H2069</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/human-microbiome-market</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SQMIG35H2299</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/car-t-cell-therapy-market</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SQMIG35H2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cell-and-gene-therapy-market</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SQMIG35G2300</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-meter-market</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SQMIG25G2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cell-isolation-market</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SQMIG35H2298</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bone-graft-substitutes-market</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SQMIG35A2257</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metaverse-in-healthcare-market</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SQMIG35H2297</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vitamin-k2-market</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SQMIG35I2355</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hemodialysis-and-peritoneal-dialysis-market</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SQMIG35D2277</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/patient-monitoring-devices-market</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQMIG35A2950</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/disposable-incontinence-products-market</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SQMIG35B2216</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wearable-patch-market</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SQMIG35H2304</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hearing-amplifiers-market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SQMIG35A2956</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/inhalation-anesthesia-market</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SQMIG35B2217</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biopsy-devices-market</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SQMIG35A2955</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/proton-pump-inhibitors-market</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SQMIG35B2218</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/healthcare-interoperability-solutions-market</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SQMIG35D2275</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/optical-imaging-market</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SQMIG35A2954</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/atherectomy-devices-market</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SQMIG35A2953</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/artificial-organs-market</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SQMIG35H2303</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/breast-imaging-market</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SQMIG35A2952</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cancer-monoclonal-antibodies-market</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SQMIG35H2308</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/life-science-tool-market</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SQSG35J2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/transradial-access-devices-market</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SQMIG35H2302</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/positron-emission-tomography-market</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SQMIG35D2276</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-terminology-software-market</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SQMIG35J2125</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/antifungal-drugs-market</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SQMIG35I2358</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/e-prescribing-market</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SQMIG35F2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/age-related-macular-degeneration-market</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SQMIG35I2357</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/probiotic-ingredients-market</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SQMIG35H2306</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cell-counting-market</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SQMIG35H2305</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bronchoscopes-market</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SQMIG35A2957</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/phototherapy-equipment-market</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SQMIG35A2926</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/anti-acne-cosmetics-market</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SQMIG30L2256</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bioremediation-market</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SQMIG20L2052</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/urinary-drainage-bags-market</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SQMIG35H2310</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/small-molecule-api-market</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SQMIG35I2356</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/clinical-trial-imaging-market</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SQMIG35H2309</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pharmaceutical-contract-packaging-market</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SQMIG35H2311</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/veterinary-artificial-insemination-market</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SQMIG35A2962</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/artificial-insemination-market</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SQMIG35A2961</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/blood-culture-tests-market</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SQMIG35D2281</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/photoacoustic-imaging-market</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SQMIG35A2960</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/peptide-synthesis-market</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SQMIG35H2313</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/behavioral-rehabilitation-market</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SQMIG35D2280</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cancer-registry-software-market</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SQMIG35G2301</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/migraine-drugs-market</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SQMIG35I2350</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/nuclear-imaging-equipment-market</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SQMIG35A2959</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pyrogen-testing-market</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SQMIG35D2279</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/rosacea-treatment-market</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SQMIG30L2257</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-document-management-systems-market</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SQMIG35D2278</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/chronic-wound-care-market</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SQMIG35H2312</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agricultural-biotechnology-market</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SQMIG20L2053</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cosmetic-implants-market</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SQMIG35A2958</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/newborn-screening-market</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SQMIG35E2050</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/surgical-stapling-devices-market</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SQMIG35A2964</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cell-viability-assays-market</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SQMIG35H2315</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/dentures-market</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SQMIG35A2963</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/surgical-retractors-market</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SQMIG35G2303</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pharmacovigilance-and-drug-safety-software-market</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SQMIG35G2302</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gene-panel-market</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SQMIG35H2314</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vital-signs-monitoring-devices-market</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SQMIG35A2912</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biological-safety-cabinet-market</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SQMIG35J2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cleanroom-consumables-market</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SQMIG35A2911</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/light-therapy-market</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SQMIG35J2120</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/antibody-drug-conjugates-market</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SQMIG35I2342</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/personalized-medicines-market</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SQMIG35H2307</t>
         </is>
       </c>
     </row>

--- a/scraped_codes.xlsx
+++ b/scraped_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1200 +448,1800 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/recombinant-protein-market</t>
+          <t>https://www.skyquestt.com/report/cloud-storage-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG35H2039</t>
+          <t>SQMIG45F2073</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bioreactors-market</t>
+          <t>https://www.skyquestt.com/report/military-robots-market</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SQMIG35H2293</t>
+          <t>SQMIG45I2159</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/herbal-supplements-market</t>
+          <t>https://www.skyquestt.com/report/smart-home-market</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SQMIG35I2351</t>
+          <t>SQMIG45I2100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fitness-tracker-market</t>
+          <t>https://www.skyquestt.com/report/wearable-medical-devices-market</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SQMIG35J2124</t>
+          <t>SQMIG35A2674</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/live-cell-imaging-market</t>
+          <t>https://www.skyquestt.com/report/mobile-robots-market</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SQMIG35H2292</t>
+          <t>SQMIG25A2296</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-equipment-maintenance-market</t>
+          <t>https://www.skyquestt.com/report/cloud-analytics-market</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SQMIG35D2261</t>
+          <t>SQMIG45B2044</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/livestock-monitoring-market</t>
+          <t>https://www.skyquestt.com/report/telecom-service-assurance-market</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SQMIG35G2298</t>
+          <t>SQMIG45J2078</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/radiofrequency-ablation-devices-market</t>
+          <t>https://www.skyquestt.com/report/gas-insulated-transformer-market</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SQMIG35A2903</t>
+          <t>SQMIG45K2107</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/orphan-drug-market</t>
+          <t>https://www.skyquestt.com/report/bioprocess-validation-market</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SQMIG30A2005</t>
+          <t>SQMIG35H2319</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biochip-market</t>
+          <t>https://www.skyquestt.com/report/autonomous-vehicles-market</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SQMIG45A2235</t>
+          <t>SQMIG25C2055</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/insulin-market</t>
+          <t>https://www.skyquestt.com/report/intravenous-solutions-market</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SQMIG35A2943</t>
+          <t>SQMIG35E2051</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/breathable-films-market</t>
+          <t>https://www.skyquestt.com/report/spectrometry-market</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SQMIG35A2942</t>
+          <t>SQMIG35J2126</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-radiation-shielding-market</t>
+          <t>https://www.skyquestt.com/report/pupillometer-market</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SQMIG35H2295</t>
+          <t>SQMIG35A2968</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/auto-injector-market</t>
+          <t>https://www.skyquestt.com/report/industrial-internet-of-things-iiot-market</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SQMIG35B2104</t>
+          <t>SQMIG45A2329</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/veterinary-imaging-market</t>
+          <t>https://www.skyquestt.com/report/microcatheters-market</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SQMIG35G2299</t>
+          <t>SQMIG35A2967</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/stem-cell-banking-market</t>
+          <t>https://www.skyquestt.com/report/concierge-medicine-market</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SQMIG35H2294</t>
+          <t>SQMIG35H2318</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/botox-market</t>
+          <t>https://www.skyquestt.com/report/cell-analysis-market</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SQMIG35H2296</t>
+          <t>SQMIG35H2316</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/process-analyzer-market</t>
+          <t>https://www.skyquestt.com/report/ivd-contract-manufacturing-market</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SQMIG35I2353</t>
+          <t>SQMIG35H2317</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/laboratory-information-system-market</t>
+          <t>https://www.skyquestt.com/report/ventricular-assist-devices-market</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SQMIG35C2028</t>
+          <t>SQMIG35A2966</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/scar-treatment-market</t>
+          <t>https://www.skyquestt.com/report/cementless-total-knee-arthroplasty-market</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SQMIG35A2949</t>
+          <t>SQMIG35A2965</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/body-composition-analyzers-market</t>
+          <t>https://www.skyquestt.com/report/green-technology-and-sustainability-market</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SQMIG35A2946</t>
+          <t>SQMIG45B2034</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/healthcare-supply-chain-management-market</t>
+          <t>https://www.skyquestt.com/report/medical-specialty-bags-market</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SQMIG35D2272</t>
+          <t>SQMIG35B2219</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/physiotherapy-equipment-market</t>
+          <t>https://www.skyquestt.com/report/ultrasound-equipment-market</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SQMIG35A2945</t>
+          <t>SQMIG35A2969</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/radiation-oncology-market</t>
+          <t>https://www.skyquestt.com/report/infection-surveillance-solutions-market</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SQMIG35A2944</t>
+          <t>SQMIG35G2304</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/weight-management-market</t>
+          <t>https://www.skyquestt.com/report/legionella-testing-market</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SQMIG35A2948</t>
+          <t>SQMIG35D2264</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/healthcare-analytical-testing-services-market</t>
+          <t>https://www.skyquestt.com/report/medical-foods-market</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SQMIG35D2273</t>
+          <t>SQMIG35I2345</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/breast-reconstruction-market</t>
+          <t>https://www.skyquestt.com/report/drug-delivery-devices-market</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SQMIG35A2947</t>
+          <t>SQMIG35A2918</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-chromatography-market</t>
+          <t>https://www.skyquestt.com/report/nutrigenomics-market</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SQMIG35G2292</t>
+          <t>SQMIG35H2266</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/immunotherapy-drugs-market</t>
+          <t>https://www.skyquestt.com/report/automotive-wrap-films-market</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SQMIG35I2354</t>
+          <t>SQMIG25A2323</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/vitamin-d-testing-market</t>
+          <t>https://www.skyquestt.com/report/evtol-aircraft-market</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SQMIG35B2215</t>
+          <t>SQMIG20A2275</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/protein-a-resin-market</t>
+          <t>https://www.skyquestt.com/report/isostatic-pressing-market</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SQMIG35H2301</t>
+          <t>SQMIG20A2266</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cardiac-biomarkers-market</t>
+          <t>https://www.skyquestt.com/report/air-freshener-market</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SQMIG35A2951</t>
+          <t>SQMIG25Z2015</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/healthcare-packaging-market</t>
+          <t>https://www.skyquestt.com/report/satellite-internet-market</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SQMIG15H2069</t>
+          <t>SQMIG45B2158</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/human-microbiome-market</t>
+          <t>https://www.skyquestt.com/report/thermoplastic-composites-market</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SQMIG35H2299</t>
+          <t>SQMIG15E2548</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/car-t-cell-therapy-market</t>
+          <t>https://www.skyquestt.com/report/nitrocellulose-market</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SQMIG35H2300</t>
+          <t>SQMIG15E2549</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-and-gene-therapy-market</t>
+          <t>https://www.skyquestt.com/report/web-analytics-market</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SQMIG35G2300</t>
+          <t>SQMIG45B2157</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-meter-market</t>
+          <t>https://www.skyquestt.com/report/esterquats-market</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SQMIG25G2014</t>
+          <t>SQSG15A2024</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-isolation-market</t>
+          <t>https://www.skyquestt.com/report/low-speed-electric-vehicle-market</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SQMIG35H2298</t>
+          <t>SQMIG10A2046</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bone-graft-substitutes-market</t>
+          <t>https://www.skyquestt.com/report/commercial-telematics-market</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SQMIG35A2257</t>
+          <t>SQMIG45E2269</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/metaverse-in-healthcare-market</t>
+          <t>https://www.skyquestt.com/report/smart-waste-management-market</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SQMIG35H2297</t>
+          <t>SQMIG45E2268</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/vitamin-k2-market</t>
+          <t>https://www.skyquestt.com/report/pay-tv-market</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SQMIG35I2355</t>
+          <t>SQMIG45I2219</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hemodialysis-and-peritoneal-dialysis-market</t>
+          <t>https://www.skyquestt.com/report/smart-fleet-management-market</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SQMIG35D2277</t>
+          <t>SQMIG45E2267</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/patient-monitoring-devices-market</t>
+          <t>https://www.skyquestt.com/report/smart-parking-market</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SQMIG35A2950</t>
+          <t>SQMIG45M2018</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/disposable-incontinence-products-market</t>
+          <t>https://www.skyquestt.com/report/chatbot-market</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SQMIG35B2216</t>
+          <t>SQMIG45A2039</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/wearable-patch-market</t>
+          <t>https://www.skyquestt.com/report/car-rental-market</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SQMIG35H2304</t>
+          <t>SQMIG25AG2009</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hearing-amplifiers-market</t>
+          <t>https://www.skyquestt.com/report/biochar-market</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SQMIG35A2956</t>
+          <t>SQMIG15C2016</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/inhalation-anesthesia-market</t>
+          <t>https://www.skyquestt.com/report/customer-experience-management-market</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SQMIG35B2217</t>
+          <t>SQMIG20Q2006</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biopsy-devices-market</t>
+          <t>https://www.skyquestt.com/report/activated-carbon-market</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SQMIG35A2955</t>
+          <t>SQMIG15B2101</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/proton-pump-inhibitors-market</t>
+          <t>https://www.skyquestt.com/report/cannabidiol-market</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SQMIG35B2218</t>
+          <t>SQMIG35I2339</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/healthcare-interoperability-solutions-market</t>
+          <t>https://www.skyquestt.com/report/carbon-credits-market</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SQMIG35D2275</t>
+          <t>SQMIG25E2111</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/optical-imaging-market</t>
+          <t>https://www.skyquestt.com/report/heat-pump-market</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SQMIG35A2954</t>
+          <t>SQMIG10B2075</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/atherectomy-devices-market</t>
+          <t>https://www.skyquestt.com/report/kombucha-market</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SQMIG35A2953</t>
+          <t>SQMIG30F2020</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/artificial-organs-market</t>
+          <t>https://www.skyquestt.com/report/identity-verification-market</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SQMIG35H2303</t>
+          <t>SQMIG45B2134</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/breast-imaging-market</t>
+          <t>https://www.skyquestt.com/report/cold-chain-market</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SQMIG35A2952</t>
+          <t>SQMIG25C2104</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cancer-monoclonal-antibodies-market</t>
+          <t>https://www.skyquestt.com/report/e-bike-market</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SQMIG35H2308</t>
+          <t>SQMIG25C2047</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/life-science-tool-market</t>
+          <t>https://www.skyquestt.com/report/smart-speaker-market</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SQSG35J2006</t>
+          <t>SQMIG25E2084</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/transradial-access-devices-market</t>
+          <t>https://www.skyquestt.com/report/enzymes-market</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SQMIG35H2302</t>
+          <t>SQSG30I2034</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/positron-emission-tomography-market</t>
+          <t>https://www.skyquestt.com/report/aquaculture-market</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SQMIG35D2276</t>
+          <t>SQMIG30H2089</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-terminology-software-market</t>
+          <t>https://www.skyquestt.com/report/industrial-gases-market</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SQMIG35J2125</t>
+          <t>SQMIG10B2039</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/antifungal-drugs-market</t>
+          <t>https://www.skyquestt.com/report/lithium-ion-battery-market</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SQMIG35I2358</t>
+          <t>SQMIG20D2153</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/e-prescribing-market</t>
+          <t>https://www.skyquestt.com/report/loyalty-management-market</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SQMIG35F2016</t>
+          <t>SQMIG45B2159</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/age-related-macular-degeneration-market</t>
+          <t>https://www.skyquestt.com/report/bioethanol-market</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SQMIG35I2357</t>
+          <t>SQMIG10D2044</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/probiotic-ingredients-market</t>
+          <t>https://www.skyquestt.com/report/extended-reality-market</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SQMIG35H2306</t>
+          <t>SQMIG45E2161</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-counting-market</t>
+          <t>https://www.skyquestt.com/report/portable-generator-market</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SQMIG35H2305</t>
+          <t>SQMIG20E2066</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bronchoscopes-market</t>
+          <t>https://www.skyquestt.com/report/cosmetic-packaging-market</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SQMIG35A2957</t>
+          <t>SQMIG30L2113</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/phototherapy-equipment-market</t>
+          <t>https://www.skyquestt.com/report/gas-turbine-market</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SQMIG35A2926</t>
+          <t>SQMIG55B2003</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/anti-acne-cosmetics-market</t>
+          <t>https://www.skyquestt.com/report/industrial-filtration-market</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SQMIG30L2256</t>
+          <t>SQMIG20I2154</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bioremediation-market</t>
+          <t>https://www.skyquestt.com/report/dimethyl-ether-market</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SQMIG20L2052</t>
+          <t>SQMIG15E2344</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/urinary-drainage-bags-market</t>
+          <t>https://www.skyquestt.com/report/polycarbonate-market</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SQMIG35H2310</t>
+          <t>SQMIG15E2343</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/small-molecule-api-market</t>
+          <t>https://www.skyquestt.com/report/recreational-vehicle-market</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SQMIG35I2356</t>
+          <t>SQMIG20I2209</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/clinical-trial-imaging-market</t>
+          <t>https://www.skyquestt.com/report/3d-printer-market</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SQMIG35H2309</t>
+          <t>SQMIG45J2073</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pharmaceutical-contract-packaging-market</t>
+          <t>https://www.skyquestt.com/report/epoxy-resin-market</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SQMIG35H2311</t>
+          <t>SQSG15A2048</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/veterinary-artificial-insemination-market</t>
+          <t>https://www.skyquestt.com/report/semiconductor-production-equipment-market</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SQMIG35A2962</t>
+          <t>SQMIG45N2084</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/artificial-insemination-market</t>
+          <t>https://www.skyquestt.com/report/masterbatch-market</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SQMIG35A2961</t>
+          <t>SQMIG15E2169</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/blood-culture-tests-market</t>
+          <t>https://www.skyquestt.com/report/crop-protection-chemicals-market</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SQMIG35D2281</t>
+          <t>SQMIG15C2035</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/photoacoustic-imaging-market</t>
+          <t>https://www.skyquestt.com/report/industrial-hemp-market</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SQMIG35A2960</t>
+          <t>SQMIG15P2005</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/peptide-synthesis-market</t>
+          <t>https://www.skyquestt.com/report/asset-performance-management-market</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SQMIG35H2313</t>
+          <t>SQMIG40J2004</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/behavioral-rehabilitation-market</t>
+          <t>https://www.skyquestt.com/report/payment-processing-solutions-market</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SQMIG35D2280</t>
+          <t>SQMIG40J2005</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cancer-registry-software-market</t>
+          <t>https://www.skyquestt.com/report/flow-battery-market</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SQMIG35G2301</t>
+          <t>SQMIG55F2057</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/migraine-drugs-market</t>
+          <t>https://www.skyquestt.com/report/commercial-vehicle-market</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SQMIG35I2350</t>
+          <t>SQMIG20V2002</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nuclear-imaging-equipment-market</t>
+          <t>https://www.skyquestt.com/report/high-performance-computing-market</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SQMIG35A2959</t>
+          <t>SQMIG45B2029</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pyrogen-testing-market</t>
+          <t>https://www.skyquestt.com/report/forklift-market</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SQMIG35D2279</t>
+          <t>SQMIG20G2021</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/rosacea-treatment-market</t>
+          <t>https://www.skyquestt.com/report/digital-map-market</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SQMIG30L2257</t>
+          <t>SQMIG45B2136</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-document-management-systems-market</t>
+          <t>https://www.skyquestt.com/report/space-tourism-market</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SQMIG35D2278</t>
+          <t>SQMIG20S2010</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/chronic-wound-care-market</t>
+          <t>https://www.skyquestt.com/report/blockchain-gaming-market</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SQMIG35H2312</t>
+          <t>SQMIG45E2251</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agricultural-biotechnology-market</t>
+          <t>https://www.skyquestt.com/report/sulfuric-acid-market</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SQMIG20L2053</t>
+          <t>SQMIG15A2309</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cosmetic-implants-market</t>
+          <t>https://www.skyquestt.com/report/insect-protein-market</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SQMIG35A2958</t>
+          <t>SQSG30I2040</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/newborn-screening-market</t>
+          <t>https://www.skyquestt.com/report/catalyst-market</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SQMIG35E2050</t>
+          <t>SQMIG15E2342</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/surgical-stapling-devices-market</t>
+          <t>https://www.skyquestt.com/report/clinical-nutrition-market</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SQMIG35A2964</t>
+          <t>SQMIG30A2012</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-viability-assays-market</t>
+          <t>https://www.skyquestt.com/report/hydrogen-storage-market</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SQMIG35H2315</t>
+          <t>SQMIG55B2005</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/dentures-market</t>
+          <t>https://www.skyquestt.com/report/high-purity-alumina-market</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SQMIG35A2963</t>
+          <t>SQMIG15E2303</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/surgical-retractors-market</t>
+          <t>https://www.skyquestt.com/report/commercial-drone-market</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SQMIG35G2303</t>
+          <t>SQMIG20A2044</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pharmacovigilance-and-drug-safety-software-market</t>
+          <t>https://www.skyquestt.com/report/payment-gateway-market</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SQMIG35G2302</t>
+          <t>SQSG45E2040</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gene-panel-market</t>
+          <t>https://www.skyquestt.com/report/smart-warehousing-market</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SQMIG35H2314</t>
+          <t>SQMIG45D2053</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/vital-signs-monitoring-devices-market</t>
+          <t>https://www.skyquestt.com/report/flow-meter-market</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SQMIG35A2912</t>
+          <t>SQMIG20D2184</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biological-safety-cabinet-market</t>
+          <t>https://www.skyquestt.com/report/air-compressor-market</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SQMIG35J2119</t>
+          <t>SQSG20I2028</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cleanroom-consumables-market</t>
+          <t>https://www.skyquestt.com/report/fog-computing-market</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SQMIG35A2911</t>
+          <t>SQMIG45F2040</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/light-therapy-market</t>
+          <t>https://www.skyquestt.com/report/lab-automation-market</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SQMIG35J2120</t>
+          <t>SQMIG20D2061</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/antibody-drug-conjugates-market</t>
+          <t>https://www.skyquestt.com/report/aircraft-engine-market</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SQMIG35I2342</t>
+          <t>SQMIG20S2011</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/personalized-medicines-market</t>
+          <t>https://www.skyquestt.com/report/rehabilitation-robots-market</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SQMIG35H2307</t>
+          <t>SQMIG45A2373</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/plastic-processing-machinery-market</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SQMIG20I2184</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/virtual-reality-in-gaming-market</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SQMIG45D2048</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-hose-market</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SQMIG20B2069</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hyperspectral-imaging-market</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SQMIG45J2128</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/smart-greenhouse-market</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SQMIG20H2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-lawn-mower-market</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SQSG20H2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agricultural-surfactants-market</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SQMIG15C2072</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/functional-water-market</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SQMIG30F2036</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/polymer-foam-market</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SQMIG15E2539</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/electronic-chemicals-and-materials-market</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SQMIG15E2339</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/infant-nutrition-market</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SQSG30I2042</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/secondary-battery-market</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SQMIG20D2229</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/base-oil-market</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SQMIG55B2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/open-banking-market</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SQMIG40A2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/essential-oils-market</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SQMIG30L2140</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/battery-energy-storage-system-market</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SQMIG55C2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/blue-hydrogen-market</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SQMIG10D2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/organic-baby-food-market</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SQMIG30I2146</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/smart-bed-market</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SQMIG25F2064</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/release-liners-market</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SQMIG15A2360</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-wax-market</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SQMIG15A2410</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pet-wearable-market</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SQMIG25S2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/synthetic-gypsum-market</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SQMIG15F2116</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-polymers-market</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SQMIG15A2347</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-ethernet-market</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SQMIG25E2113</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/landfill-gas-market</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SQMIG10C2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/torque-vectoring-market</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SQMIG25E2112</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/lithium-ion-battery-recycling-market</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SQMIG15A2413</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/heat-recovery-steam-generator-market</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SQMIG20E2060</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wire-harness-market</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SQMIG20D2163</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/alkaline-battery-market</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SQSG20D2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/image-sensor-market</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SQMIG45J2154</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/battery-electrolyte-market</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SQMIG20D2224</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/voice-assistant-application-market</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SQMIG45E2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/commercial-hvac-market</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SQMIG20D2234</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/drone-payload-market</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SQMIG20D2258</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/secure-logistics-market</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SQMIG20R2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agriculture-analytics-market</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SQMIG45F2070</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/busbar-market</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SQMIG20D2189</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-airbag-market</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SQSG25A2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/alcoholic-beverages-market</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SQMIG30C2129</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/energy-management-system-market</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SQMIG45F2071</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/polymer-modified-bitumen-market</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SQMIG20C2068</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hydraulic-fracturing-market</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SQMIG20I2216</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vegan-cosmetics-market</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SQMIG30L2195</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/polyurethane-foam-market</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SQMIG15B2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/smart-water-management-market</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SQMIG55D2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ceramics-market</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SQMIG15F2099</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/train-battery-market</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SQMIG20E2086</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/thermoelectric-generator-market</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SQMIG20D2264</t>
         </is>
       </c>
     </row>

--- a/scraped_codes.xlsx
+++ b/scraped_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1800 +448,3624 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cloud-storage-market</t>
+          <t>https://www.skyquestt.com/report/aerostructure-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG45F2073</t>
+          <t>SQMIG20A2188</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/military-robots-market</t>
+          <t>https://www.skyquestt.com/report/baking-ingredients-market</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SQMIG45I2159</t>
+          <t>SQMIG30C2040</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-home-market</t>
+          <t>https://www.skyquestt.com/report/lubricant-additives-market</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SQMIG45I2100</t>
+          <t>SQMIG15A2313</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/wearable-medical-devices-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-enzymes-market</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SQMIG35A2674</t>
+          <t>SQMIG15C2070</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/mobile-robots-market</t>
+          <t>https://www.skyquestt.com/report/food-container-market</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SQMIG25A2296</t>
+          <t>SQMIG15F2121</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cloud-analytics-market</t>
+          <t>https://www.skyquestt.com/report/aromatic-solvents-market</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SQMIG45B2044</t>
+          <t>SQMIG15E2133</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/telecom-service-assurance-market</t>
+          <t>https://www.skyquestt.com/report/refrigerators-market</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SQMIG45J2078</t>
+          <t>SQMIG25H2034</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-insulated-transformer-market</t>
+          <t>https://www.skyquestt.com/report/green-cement-market</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SQMIG45K2107</t>
+          <t>SQMIG15F2081</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bioprocess-validation-market</t>
+          <t>https://www.skyquestt.com/report/bakery-products-market</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SQMIG35H2319</t>
+          <t>SQMIG25E2039</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/autonomous-vehicles-market</t>
+          <t>https://www.skyquestt.com/report/waterborne-coatings-market</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SQMIG25C2055</t>
+          <t>SQMIG15E2123</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/intravenous-solutions-market</t>
+          <t>https://www.skyquestt.com/report/medical-polymers-market</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SQMIG35E2051</t>
+          <t>SQMIG15A2347</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/spectrometry-market</t>
+          <t>https://www.skyquestt.com/report/waste-recycling-services-market</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SQMIG35J2126</t>
+          <t>SQMIG20L2042</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pupillometer-market</t>
+          <t>https://www.skyquestt.com/report/air-insulated-switchgear-market</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SQMIG35A2968</t>
+          <t>SQMIG20D2257</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-internet-of-things-iiot-market</t>
+          <t>https://www.skyquestt.com/report/automotive-led-lighting-market</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SQMIG45A2329</t>
+          <t>SQMIG25A2184</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/microcatheters-market</t>
+          <t>https://www.skyquestt.com/report/augmented-reality-in-retail-market</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SQMIG35A2967</t>
+          <t>SQMIG45E2243</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/concierge-medicine-market</t>
+          <t>https://www.skyquestt.com/report/metering-pumps-market</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SQMIG35H2318</t>
+          <t>SQMIG20C2012</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-analysis-market</t>
+          <t>https://www.skyquestt.com/report/mobile-crane-market</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SQMIG35H2316</t>
+          <t>SQSG25C2004</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ivd-contract-manufacturing-market</t>
+          <t>https://www.skyquestt.com/report/construction-adhesives-market</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SQMIG35H2317</t>
+          <t>SQMIG20B2047</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ventricular-assist-devices-market</t>
+          <t>https://www.skyquestt.com/report/fall-protection-market</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SQMIG35A2966</t>
+          <t>SQMIG20C2051</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cementless-total-knee-arthroplasty-market</t>
+          <t>https://www.skyquestt.com/report/electric-submersible-pump-market</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SQMIG35A2965</t>
+          <t>SQMIG20D2145</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/green-technology-and-sustainability-market</t>
+          <t>https://www.skyquestt.com/report/electric-van-market</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SQMIG45B2034</t>
+          <t>SQMIG25C2128</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-specialty-bags-market</t>
+          <t>https://www.skyquestt.com/report/farm-equipment-rental-market</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SQMIG35B2219</t>
+          <t>SQMIG20H2041</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ultrasound-equipment-market</t>
+          <t>https://www.skyquestt.com/report/unsaturated-polyester-resins-market</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SQMIG35A2969</t>
+          <t>SQMIG15E2408</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/infection-surveillance-solutions-market</t>
+          <t>https://www.skyquestt.com/report/silicon-metal-market</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SQMIG35G2304</t>
+          <t>SQMIG15J2056</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/legionella-testing-market</t>
+          <t>https://www.skyquestt.com/report/soil-conditioners-market</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SQMIG35D2264</t>
+          <t>SQMIG30H2120</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-foods-market</t>
+          <t>https://www.skyquestt.com/report/aluminum-composite-panels-market</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SQMIG35I2345</t>
+          <t>SQMIG15F2083</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/drug-delivery-devices-market</t>
+          <t>https://www.skyquestt.com/report/smart-antenna-market</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SQMIG35A2918</t>
+          <t>SQSG25E2011</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nutrigenomics-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-adjuvants-market</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SQMIG35H2266</t>
+          <t>SQMIG15C2038</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-wrap-films-market</t>
+          <t>https://www.skyquestt.com/report/diesel-power-engine-market</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SQMIG25A2323</t>
+          <t>SQMIG20I2284</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/evtol-aircraft-market</t>
+          <t>https://www.skyquestt.com/report/herbicides-market</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SQMIG20A2275</t>
+          <t>SQMIG15A2110</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/isostatic-pressing-market</t>
+          <t>https://www.skyquestt.com/report/hydrogen-energy-storage-market</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SQMIG20A2266</t>
+          <t>SQMIG10E2022</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/air-freshener-market</t>
+          <t>https://www.skyquestt.com/report/silicone-market</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SQMIG25Z2015</t>
+          <t>SQMIG15E2405</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/satellite-internet-market</t>
+          <t>https://www.skyquestt.com/report/nitrogenous-fertilizer-market</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SQMIG45B2158</t>
+          <t>SQMIG15A2101</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/thermoplastic-composites-market</t>
+          <t>https://www.skyquestt.com/report/water-soluble-fertilizer-market</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SQMIG15E2548</t>
+          <t>SQMIG30H2051</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nitrocellulose-market</t>
+          <t>https://www.skyquestt.com/report/battery-additives-market</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SQMIG15E2549</t>
+          <t>SQMIG15A2320</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/web-analytics-market</t>
+          <t>https://www.skyquestt.com/report/antimicrobial-packaging-market</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SQMIG45B2157</t>
+          <t>SQMIG15G2068</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/esterquats-market</t>
+          <t>https://www.skyquestt.com/report/acrylic-resin-market</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SQSG15A2024</t>
+          <t>SQMIG15A2350</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/low-speed-electric-vehicle-market</t>
+          <t>https://www.skyquestt.com/report/retort-packaging-market</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SQMIG10A2046</t>
+          <t>SQMIG15G2069</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-telematics-market</t>
+          <t>https://www.skyquestt.com/report/smart-energy-market</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SQMIG45E2269</t>
+          <t>SQMIG55F2028</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-waste-management-market</t>
+          <t>https://www.skyquestt.com/report/fuel-cell-vehicle-market</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SQMIG45E2268</t>
+          <t>SQMIG55F2046</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pay-tv-market</t>
+          <t>https://www.skyquestt.com/report/screw-compressor-market</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SQMIG45I2219</t>
+          <t>SQMIG15F2164</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-fleet-management-market</t>
+          <t>https://www.skyquestt.com/report/geothermal-power-market</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SQMIG45E2267</t>
+          <t>SQMIG55F2030</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-parking-market</t>
+          <t>https://www.skyquestt.com/report/organic-pet-food-market</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SQMIG45M2018</t>
+          <t>SQMIG30I2385</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/chatbot-market</t>
+          <t>https://www.skyquestt.com/report/smart-grid-sensors-market</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SQMIG45A2039</t>
+          <t>SQMIG15A2432</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/car-rental-market</t>
+          <t>https://www.skyquestt.com/report/bulletproof-glass-market</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SQMIG25AG2009</t>
+          <t>SQMIG15G2090</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biochar-market</t>
+          <t>https://www.skyquestt.com/report/glass-fiber-market</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SQMIG15C2016</t>
+          <t>SQMIG15A2427</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/customer-experience-management-market</t>
+          <t>https://www.skyquestt.com/report/security-robots-market</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SQMIG20Q2006</t>
+          <t>SQMIG45J2202</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/activated-carbon-market</t>
+          <t>https://www.skyquestt.com/report/water-recycle-and-reuse-market</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SQMIG15B2101</t>
+          <t>SQMIG55D2021</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cannabidiol-market</t>
+          <t>https://www.skyquestt.com/report/transfection-technologies-market</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SQMIG35I2339</t>
+          <t>SQMIG15A2450</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/carbon-credits-market</t>
+          <t>https://www.skyquestt.com/report/offshore-wind-power-market</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SQMIG25E2111</t>
+          <t>SQMIG55E2047</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/heat-pump-market</t>
+          <t>https://www.skyquestt.com/report/food-logistics-market</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SQMIG10B2075</t>
+          <t>SQMIG30B2043</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/kombucha-market</t>
+          <t>https://www.skyquestt.com/report/biomass-power-generation-market</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SQMIG30F2020</t>
+          <t>SQMIG55F2054</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/identity-verification-market</t>
+          <t>https://www.skyquestt.com/report/consumer-robotics-market</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SQMIG45B2134</t>
+          <t>SQMIG25E2123</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cold-chain-market</t>
+          <t>https://www.skyquestt.com/report/grow-light-market</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SQMIG25C2104</t>
+          <t>SQMIG55A2048</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/e-bike-market</t>
+          <t>https://www.skyquestt.com/report/nuclear-decommissioning-market</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SQMIG25C2047</t>
+          <t>SQMIG20N2026</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-speaker-market</t>
+          <t>https://www.skyquestt.com/report/proximity-sensors-market</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SQMIG25E2084</t>
+          <t>SQMIG25A2134</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/enzymes-market</t>
+          <t>https://www.skyquestt.com/report/e-discovery-software-market</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SQSG30I2034</t>
+          <t>SQSG45E2033</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/aquaculture-market</t>
+          <t>https://www.skyquestt.com/report/shore-power-market</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SQMIG30H2089</t>
+          <t>SQMIG20E2076</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-gases-market</t>
+          <t>https://www.skyquestt.com/report/data-annotation-tools-market</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SQMIG10B2039</t>
+          <t>SQMIG45C2064</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/lithium-ion-battery-market</t>
+          <t>https://www.skyquestt.com/report/robotic-air-purifier-market</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SQMIG20D2153</t>
+          <t>SQMIG25A2324</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/loyalty-management-market</t>
+          <t>https://www.skyquestt.com/report/artificial-intelligence-based-personalization-market</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SQMIG45B2159</t>
+          <t>SQMIG45A2301</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bioethanol-market</t>
+          <t>https://www.skyquestt.com/report/automotive-digital-key-market</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SQMIG10D2044</t>
+          <t>SQMIG25A2314</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/extended-reality-market</t>
+          <t>https://www.skyquestt.com/report/knowledge-process-outsourcing-market</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SQMIG45E2161</t>
+          <t>SQMIG45C2060</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/portable-generator-market</t>
+          <t>https://www.skyquestt.com/report/product-lifecycle-management-market</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SQMIG20E2066</t>
+          <t>SQMIG45E2204</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cosmetic-packaging-market</t>
+          <t>https://www.skyquestt.com/report/autonomous-mobile-robot-market</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SQMIG30L2113</t>
+          <t>SQMIG45A2375</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-turbine-market</t>
+          <t>https://www.skyquestt.com/report/motorcycle-sensors-market</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SQMIG55B2003</t>
+          <t>SQMIG25A2312</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-filtration-market</t>
+          <t>https://www.skyquestt.com/report/food-processing-equipment-market</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SQMIG20I2154</t>
+          <t>SQMIG20E2054</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/dimethyl-ether-market</t>
+          <t>https://www.skyquestt.com/report/automotive-catalyst-market</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SQMIG15E2344</t>
+          <t>SQMIG25A2141</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/polycarbonate-market</t>
+          <t>https://www.skyquestt.com/report/large-format-printers-market</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SQMIG15E2343</t>
+          <t>SQMIG20D2086</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/recreational-vehicle-market</t>
+          <t>https://www.skyquestt.com/report/railway-wiring-harness-market</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SQMIG20I2209</t>
+          <t>SQMIG20U2014</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/3d-printer-market</t>
+          <t>https://www.skyquestt.com/report/utility-battery-market</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SQMIG45J2073</t>
+          <t>SQMIG20D2265</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/epoxy-resin-market</t>
+          <t>https://www.skyquestt.com/report/friction-stir-welding-equipment-market</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SQSG15A2048</t>
+          <t>SQMIG20E2082</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/semiconductor-production-equipment-market</t>
+          <t>https://www.skyquestt.com/report/power-metering-market</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SQMIG45N2084</t>
+          <t>SQMIG20D2266</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/masterbatch-market</t>
+          <t>https://www.skyquestt.com/report/municipal-solid-waste-management-market</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SQMIG15E2169</t>
+          <t>SQMIG20L2036</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/crop-protection-chemicals-market</t>
+          <t>https://www.skyquestt.com/report/delivery-drones-market</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SQMIG15C2035</t>
+          <t>SQMIG20R2015</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-hemp-market</t>
+          <t>https://www.skyquestt.com/report/pharmaceutical-logistics-market</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SQMIG15P2005</t>
+          <t>SQMIG35I2336</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/asset-performance-management-market</t>
+          <t>https://www.skyquestt.com/report/smart-mirror-market</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SQMIG40J2004</t>
+          <t>SQMIG45I2077</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/payment-processing-solutions-market</t>
+          <t>https://www.skyquestt.com/report/ambient-light-sensor-market</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SQMIG40J2005</t>
+          <t>SQMIG45J2201</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/flow-battery-market</t>
+          <t>https://www.skyquestt.com/report/mining-truck-market</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SQMIG55F2057</t>
+          <t>SQMIG20G2055</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-vehicle-market</t>
+          <t>https://www.skyquestt.com/report/high-speed-camera-market</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SQMIG20V2002</t>
+          <t>SQMIG45A2221</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/high-performance-computing-market</t>
+          <t>https://www.skyquestt.com/report/industrial-sewing-machines-market</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SQMIG45B2029</t>
+          <t>SQMIG20I2275</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/forklift-market</t>
+          <t>https://www.skyquestt.com/report/3d-scanning-market</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SQMIG20G2021</t>
+          <t>SQMIG45I2079</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/digital-map-market</t>
+          <t>https://www.skyquestt.com/report/fusion-splicer-market</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SQMIG45B2136</t>
+          <t>SQMIG45A2254</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/space-tourism-market</t>
+          <t>https://www.skyquestt.com/report/battery-energy-storage-market</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SQMIG20S2010</t>
+          <t>SQMIG25A2326</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/blockchain-gaming-market</t>
+          <t>https://www.skyquestt.com/report/hdmi-cable-market</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SQMIG45E2251</t>
+          <t>SQMIG45A2255</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/sulfuric-acid-market</t>
+          <t>https://www.skyquestt.com/report/hybrid-fiber-coaxial-market</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SQMIG15A2309</t>
+          <t>SQMIG45A2253</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/insect-protein-market</t>
+          <t>https://www.skyquestt.com/report/automotive-pumps-market</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SQSG30I2040</t>
+          <t>SQMIG25A2218</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/catalyst-market</t>
+          <t>https://www.skyquestt.com/report/cloud-encryption-software-market</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SQMIG15E2342</t>
+          <t>SQMIG45A2313</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/clinical-nutrition-market</t>
+          <t>https://www.skyquestt.com/report/automotive-pressure-sensors-market</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SQMIG30A2012</t>
+          <t>SQMIG25A2271</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hydrogen-storage-market</t>
+          <t>https://www.skyquestt.com/report/hydraulic-dosing-pump-market</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SQMIG55B2005</t>
+          <t>SQSG20I2019</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/high-purity-alumina-market</t>
+          <t>https://www.skyquestt.com/report/hydraulic-equipment-market</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SQMIG15E2303</t>
+          <t>SQMIG20I2193</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-drone-market</t>
+          <t>https://www.skyquestt.com/report/aircraft-mro-market</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SQMIG20A2044</t>
+          <t>SQMIG20S2009</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/payment-gateway-market</t>
+          <t>https://www.skyquestt.com/report/heavy-construction-equipment-market</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SQSG45E2040</t>
+          <t>SQMIG20C2032</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-warehousing-market</t>
+          <t>https://www.skyquestt.com/report/service-integration-and-management-market</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SQMIG45D2053</t>
+          <t>SQMIG45F2159</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/flow-meter-market</t>
+          <t>https://www.skyquestt.com/report/cloud-discovery-market</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SQMIG20D2184</t>
+          <t>SQMIG45D2101</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/air-compressor-market</t>
+          <t>https://www.skyquestt.com/report/automotive-solenoid-market</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SQSG20I2028</t>
+          <t>SQMIG25A2327</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fog-computing-market</t>
+          <t>https://www.skyquestt.com/report/automotive-fuse-market</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SQMIG45F2040</t>
+          <t>SQMIG25A2328</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/lab-automation-market</t>
+          <t>https://www.skyquestt.com/report/filling-equipment-market</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SQMIG20D2061</t>
+          <t>SQMIG20I2188</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/aircraft-engine-market</t>
+          <t>https://www.skyquestt.com/report/portable-air-purifier-market</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SQMIG20S2011</t>
+          <t>SQMIG20L2027</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/rehabilitation-robots-market</t>
+          <t>https://www.skyquestt.com/report/commercial-security-system-market</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SQMIG45A2373</t>
+          <t>SQMIG20O2010</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/plastic-processing-machinery-market</t>
+          <t>https://www.skyquestt.com/report/hazardous-waste-management-market</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SQMIG20I2184</t>
+          <t>SQMIG20L2054</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/virtual-reality-in-gaming-market</t>
+          <t>https://www.skyquestt.com/report/fuel-cell-powertrain-market</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SQMIG45D2048</t>
+          <t>SQMIG10B2029</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-hose-market</t>
+          <t>https://www.skyquestt.com/report/busbar-trunking-system-market</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SQMIG20B2069</t>
+          <t>SQMIG55A2049</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hyperspectral-imaging-market</t>
+          <t>https://www.skyquestt.com/report/phosphoric-acid-fuel-cell-market</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SQMIG45J2128</t>
+          <t>SQMIG55F2044</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-greenhouse-market</t>
+          <t>https://www.skyquestt.com/report/artichokes-market</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SQMIG20H2008</t>
+          <t>SQSG30C2012</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/robotic-lawn-mower-market</t>
+          <t>https://www.skyquestt.com/report/smart-kitchen-appliances-market</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SQSG20H2001</t>
+          <t>SQMIG25I2027</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agricultural-surfactants-market</t>
+          <t>https://www.skyquestt.com/report/ultrasonic-cleaning-equipment-market</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SQMIG15C2072</t>
+          <t>SQMIG20N2032</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/functional-water-market</t>
+          <t>https://www.skyquestt.com/report/industrial-brakes-market</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SQMIG30F2036</t>
+          <t>SQMIG20I2281</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/polymer-foam-market</t>
+          <t>https://www.skyquestt.com/report/ruminant-feed-market</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SQMIG15E2539</t>
+          <t>SQSG30C2018</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/electronic-chemicals-and-materials-market</t>
+          <t>https://www.skyquestt.com/report/micro-packaging-market</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SQMIG15E2339</t>
+          <t>SQMIG15G2066</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/infant-nutrition-market</t>
+          <t>https://www.skyquestt.com/report/artificial-turf-market</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SQSG30I2042</t>
+          <t>SQMIG15F2105</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/secondary-battery-market</t>
+          <t>https://www.skyquestt.com/report/carnauba-wax-market</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SQMIG20D2229</t>
+          <t>SQMIG15E2439</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/base-oil-market</t>
+          <t>https://www.skyquestt.com/report/ambient-lighting-market</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SQMIG55B2009</t>
+          <t>SQMIG25E2074</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/open-banking-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-lubricants-market</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SQMIG40A2004</t>
+          <t>SQMIG15C2014</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/essential-oils-market</t>
+          <t>https://www.skyquestt.com/report/fuel-dispenser-market</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SQMIG30L2140</t>
+          <t>SQMIG10B2018</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/battery-energy-storage-system-market</t>
+          <t>https://www.skyquestt.com/report/tobacco-packaging-market</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SQMIG55C2005</t>
+          <t>SQMIG30J2026</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/blue-hydrogen-market</t>
+          <t>https://www.skyquestt.com/report/subsea-manifolds-market</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SQMIG10D2019</t>
+          <t>SQMIG15F2106</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/organic-baby-food-market</t>
+          <t>https://www.skyquestt.com/report/egg-replacement-ingredients-market</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SQMIG30I2146</t>
+          <t>SQMIG30C2066</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-bed-market</t>
+          <t>https://www.skyquestt.com/report/nanomaterials-market</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SQMIG25F2064</t>
+          <t>SQMIG15B2044</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/release-liners-market</t>
+          <t>https://www.skyquestt.com/report/water-soluble-polymers-market</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SQMIG15A2360</t>
+          <t>SQMIG15E2370</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-wax-market</t>
+          <t>https://www.skyquestt.com/report/Power-Bank-Market</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SQMIG15A2410</t>
+          <t>SQMIG25E2040</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pet-wearable-market</t>
+          <t>https://www.skyquestt.com/report/nitrous-oxide-market</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SQMIG25S2023</t>
+          <t>SQMIG15A2304</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/synthetic-gypsum-market</t>
+          <t>https://www.skyquestt.com/report/3d-printing-construction-market</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SQMIG15F2116</t>
+          <t>SQMIG15F2108</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-polymers-market</t>
+          <t>https://www.skyquestt.com/report/lignin-market</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SQMIG15A2347</t>
+          <t>SQMIG15C2039</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-ethernet-market</t>
+          <t>https://www.skyquestt.com/report/thermoplastic-elastomer-market</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SQMIG25E2113</t>
+          <t>SQMIG15E2162</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/landfill-gas-market</t>
+          <t>https://www.skyquestt.com/report/piezoelectric-materials-market</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SQMIG10C2020</t>
+          <t>SQMIG15A2119</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/torque-vectoring-market</t>
+          <t>https://www.skyquestt.com/report/legumes-market</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SQMIG25E2112</t>
+          <t>SQMIG30B2021</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/lithium-ion-battery-recycling-market</t>
+          <t>https://www.skyquestt.com/report/industrial-fasteners-market</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SQMIG15A2413</t>
+          <t>SQMIG15B2042</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/heat-recovery-steam-generator-market</t>
+          <t>https://www.skyquestt.com/report/microinsurance-market</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SQMIG20E2060</t>
+          <t>SQMIG40N2004</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/wire-harness-market</t>
+          <t>https://www.skyquestt.com/report/fluorspar-market</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SQMIG20D2163</t>
+          <t>SQMIG15J2027</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/alkaline-battery-market</t>
+          <t>https://www.skyquestt.com/report/green-technology-and-sustainability-market</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SQSG20D2008</t>
+          <t>SQMIG45B2034</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/image-sensor-market</t>
+          <t>https://www.skyquestt.com/report/spatial-light-modulator-market</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SQMIG45J2154</t>
+          <t>SQMIG55A2029</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/battery-electrolyte-market</t>
+          <t>https://www.skyquestt.com/report/resorcinol-market</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SQMIG20D2224</t>
+          <t>SQMIG15E2265</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/voice-assistant-application-market</t>
+          <t>https://www.skyquestt.com/report/feed-acidifiers-market</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SQMIG45E2270</t>
+          <t>SQMIG15C2049</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-hvac-market</t>
+          <t>https://www.skyquestt.com/report/bio-based-propylene-glycol-market</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SQMIG20D2234</t>
+          <t>SQMIG15A2171</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/drone-payload-market</t>
+          <t>https://www.skyquestt.com/report/ceramic-membrane-market</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SQMIG20D2258</t>
+          <t>SQMIG15E2409</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/secure-logistics-market</t>
+          <t>https://www.skyquestt.com/report/water-softening-systems-market</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SQMIG20R2016</t>
+          <t>SQMIG55D2009</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agriculture-analytics-market</t>
+          <t>https://www.skyquestt.com/report/flexible-glass-market</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SQMIG45F2070</t>
+          <t>SQMIG15G2061</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/busbar-market</t>
+          <t>https://www.skyquestt.com/report/green-tires-market</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SQMIG20D2189</t>
+          <t>SQMIG25B2013</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-airbag-market</t>
+          <t>https://www.skyquestt.com/report/glyoxylic-acid-market</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SQSG25A2013</t>
+          <t>SQMIG30L2223</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/alcoholic-beverages-market</t>
+          <t>https://www.skyquestt.com/report/building-thermal-insulation-market</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SQMIG30C2129</t>
+          <t>SQMIG15F2118</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/energy-management-system-market</t>
+          <t>https://www.skyquestt.com/report/advanced-polymer-composites-market</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SQMIG45F2071</t>
+          <t>SQMIG15B2105</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/polymer-modified-bitumen-market</t>
+          <t>https://www.skyquestt.com/report/arachidonic-acid-market</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SQMIG20C2068</t>
+          <t>SQMIG15A2209</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hydraulic-fracturing-market</t>
+          <t>https://www.skyquestt.com/report/carmine-market</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SQMIG20I2216</t>
+          <t>SQMIG30C2135</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/vegan-cosmetics-market</t>
+          <t>https://www.skyquestt.com/report/cosmetic-products-market</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SQMIG30L2195</t>
+          <t>SQMIG30L2224</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/polyurethane-foam-market</t>
+          <t>https://www.skyquestt.com/report/offshore-wind-turbine-market</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SQMIG15B2118</t>
+          <t>SQMIG10B2084</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-water-management-market</t>
+          <t>https://www.skyquestt.com/report/automotive-wheel-market</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SQMIG55D2023</t>
+          <t>SQMIG25B2015</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ceramics-market</t>
+          <t>https://www.skyquestt.com/report/emission-control-catalysts-market</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SQMIG15F2099</t>
+          <t>SQMIG15A2336</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/train-battery-market</t>
+          <t>https://www.skyquestt.com/report/flame-retardants-market</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SQMIG20E2086</t>
+          <t>SQMIG15A2338</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/thermoelectric-generator-market</t>
+          <t>https://www.skyquestt.com/report/flock-adhesives-market</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SQMIG20D2264</t>
+          <t>SQMIG15E2294</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/coal-tar-pitch-market</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SQMIG10G2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/high-performance-ceramic-coatings-market</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SQMIG15B2102</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/adhesion-barrier-market</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>SQMIG15B2076</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agriculture-equipment-market</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>SQSG20H2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-plastics-market</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>SQMIG15E2132</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/specialty-food-ingredients-market</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SQMIG30H2082</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/geosynthetics-market</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>SQMIG15E2173</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fiberglass-market</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SQMIG15E2167</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/conductive-inks-market</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>SQMIG20K2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-chromium-market</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>SQMIG15A2299</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/synthetic-rubber-market</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SQMIG15A2103</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biometrics-market</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SQMIG45I2142</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-waste-management-market</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SQMIG20L2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-ethernet-market</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SQMIG25Z2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/solar-pv-mounting-systems-market</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>SQMIG20E2044</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/retail-ready-packaging-market</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SQMIG25Y2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/voice-biometrics-market</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>SQMIG50C2031</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/web-content-management-market</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SQMIG25E2109</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/critical-infrastructure-protection-market</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SQMIG40J2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/barcode-label-printer-market</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SQMIG25E2115</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biomass-pellets-market</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SQMIG10G2035</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/construction-fabrics-market</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>SQMIG15F2173</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/elastomeric-coatings-market</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>SQMIG15E2469</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/propylene-carbonate-market</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SQMIG15E2515</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/microbial-enhanced-oil-recovery-market</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SQMIG10C2028</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cnc-router-market</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SQMIG15F2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-lidar-sensors-market</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>SQMIG10A2030</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/directional-drilling-market</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SQMIG15F2167</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cast-acrylic-sheets-market</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SQMIG15G2086</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/oil-and-gas-accumulator-market</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SQMIG15F2146</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/slickline-services-market</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>SQMIG15A2414</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/flare-gas-recovery-system-market</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SQMIG15A2434</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/heat-transfer-fluid-market</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SQMIG15E2503</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/semiconductor-capital-equipment-market</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>SQMIG15A2433</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/tire-pressure-monitoring-system-market</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SQMIG25B2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-generator-market</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SQMIG10C2031</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/advanced-functional-materials-market</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SQMIG15A2420</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ground-engaging-tools-market</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SQMIG55A2044</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metallurgical-coal-market</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SQMIG10A2032</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/articulated-robots-market</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SQMIG55A2051</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wireless-gas-detection-market</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>SQMIG10B2105</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/volatile-organic-compound-gas-sensor-market</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>SQMIG10A2047</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-paint-booth-market</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SQMIG10A2048</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/solar-battery-market</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>SQMIG55A2050</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hospitality-robots-market</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>SQMIG25S2055</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gear-oil-market</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>SQMIG15A2438</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/sapphire-glass-market</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>SQMIG15M2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/archery-equipment-market</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>SQMIG25J2076</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/floor-adhesive-market</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SQMIG15E2535</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/liquid-polybutadiene-market</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SQMIG15E2536</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/middle-office-outsourcing-market</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SQMIG60D2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/liquid-detergent-market</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SQMIG30K2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/software-defined-data-center-market</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SQMIG45E2197</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/speech-and-voice-recognition-market</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SQMIG45J2063</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/enterprise-architecture-tools-market</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>SQMIG45B2066</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radar-sensor-market</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>SQMIG25A2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/air-brake-system-market</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>SQMIG25A2163</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/battery-swapping-market</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SQMIG25A2329</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/progressive-cavity-pump-market</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>SQMIG20A2276</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vacuum-coating-equipment-market</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SQMIG20I2181</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wearable-camera-market</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>SQMIG20D2069</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/parental-control-software-market</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SQMIG50J2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-flexible-washer-market</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SQMIG45A2376</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-wheelchairs-market</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>SQMIG25A2330</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/commercial-refrigeration-market</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>SQMIG20N2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-front-end-module-market</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SQMIG25A2195</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bifacial-solar-market</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>SQMIG45O2041</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-data-logger-market</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>SQMIG25A2267</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-drive-shaft-market</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>SQMIG25A2268</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-supercharger-market</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SQMIG25A2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/adaptive-robotics-market</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>SQMIG45A2257</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-masks-market</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SQMIG20N2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-shielding-market</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>SQSG25AG2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/digital-shipyard-market</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>SQMIG20Y2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/military-sensors-market</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>SQMIG25AG2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/uav-flight-training-and-simulation-market</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SQMIG45E2271</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radiation-dose-management-market</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SQMIG45A2277</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-intelligent-lighting-system-market</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>SQMIG25A2331</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/position-sensor-market</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>SQSG45I2036</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-smart-display-market</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SQMIG25A2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/micro-mobility-market</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>SQMIG25A2063</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/string-inverter-market</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>SQMIG20E2043</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/payment-security-market</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>SQMIG20I2192</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/workplace-safety-market</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>SQMIG20P2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/scooter-sharing-market</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>SQMIG20V2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-ignition-system-market</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>SQMIG20D2210</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/okr-software-market</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>SQMIG45A2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/dynamic-positioning-system-market</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>SQMIG20A2042</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/educational-robot-market</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>SQMIG25A2332</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-fuel-tank-market</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SQMIG25A2161</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/Automotive-knock-sensor-market</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>SQMIG45O2048</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metallic-stearate-market</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>SQMIG15F2064</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cloud-enterprise-application-software-market</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>SQMIG45A2319</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robo-advisory-market</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>SQMIG45E2136</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/waste-heat-recovery-system-market</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>SQMIG20I2106</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/integrated-marine-automation-system-market</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>SQMIG20T2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/marine-engine-market</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>SQMIG25A2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/3d-printing-in-healthcare-market</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>SQMIG20C2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-3d-printing-market</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>SQMIG20I2253</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/government-cloud-market</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>SQMIG45D2102</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/enterprise-information-archiving-market</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>SQMIG45A2348</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/small-caliber-ammunition-market</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SQSG20A2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pure-play-software-testing-services-market</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>SQSG45B2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/drone-software-market</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>SQSG45E2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/process-mining-software-market</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>SQMIG45F2127</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/waterjet-cutting-machine-market</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>SQMIG20I2283</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/paralleling-switchgear-market</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>SQMIG20E2083</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/transformer-monitoring-system-market</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>SQMIG45J2182</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/earthing-equipment-market</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SQMIG20E2087</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/low-voltage-switchgear-market</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>SQMIG20E2089</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-3d-printing-market</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>SQMIG45E2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fertility-test-market</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>SQMIG45A2234</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/aircraft-communication-system-market</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>SQMIG20A2206</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/traffic-sensor-market</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>SQMIG45J2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-intercooler-market</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>SQMIG25A2274</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/broadcasting-equipment-market</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>SQMIG45H2059</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/tunable-laser-market</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>SQMIG45J2224</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-garage-equipment-market</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>SQMIG25A2284</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/poultry-feed-market</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>SQSG30C2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/commercial-seaweed-market</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>SQMIG30H2145</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-battery-market</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>SQMIG25A2333</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/advanced-composites-market</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>SQMIG15B2033</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metal-recycling-market</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>SQMIG15J2068</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/collagen-and-gelatin-market</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>SQMIG15A2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/intumescent-coatings-market</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>SQMIG15A2115</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ethane-market</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>SQMIG15E2166</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/super-absorbent-polymers-market</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>SQMIG15E2130</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/soy-protein-ingredients-market</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>SQMIG30C2095</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/new-energy-vehicle-taxi-market</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>SQMIG25E2114</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/acetic-anhydride-market</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>SQMIG15A2425</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/stick-packaging-market</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>SQMIG15H2061</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/rfid-printer-market</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>SQMIG25E2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/organic-pesticides-market</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>SQMIG15A2370</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/potassium-formate-market</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>SQMIG15A2409</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/water-softeners-market</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>SQMIG15E2514</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/boiler-control-market</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>SQMIG15A2415</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/diisononyl-phthalate-market</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>SQMIG15E2480</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/polycarbonate-sheets-market</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SQMIG15G2087</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ethylene-dichloride-market</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>SQMIG15A2411</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/superconducting-wire-market</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>SQMIG10A2041</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radio-access-network-market</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>SQMIG45H2040</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/oil-condition-monitoring-market</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>SQMIG10B2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ground-support-equipment-market</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>SQMIG20A2215</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ammonium-carbonate-market</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>SQMIG15A2406</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/temporary-power-market</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>SQMIG55E2041</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/inventory-tags-market</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>SQMIG15Q2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-robotics-market</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>SQMIG30C2155</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/antiscalants-scale-inhibitors-market</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>SQMIG15E2506</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/lactoferrin-market</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>SQMIG30I2351</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wearable-medical-devices-market</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>SQMIG35A2674</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cannabidiol-market</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>SQMIG35I2339</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/mobile-robots-market</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SQMIG25A2296</t>
         </is>
       </c>
     </row>

--- a/scraped_codes.xlsx
+++ b/scraped_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,3622 +448,6646 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/aerostructure-market</t>
+          <t>https://www.skyquestt.com/report/surgical-suture-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG20A2188</t>
+          <t>SQMIG35A2205</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/baking-ingredients-market</t>
+          <t>https://www.skyquestt.com/report/mass-spectrometer-market</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SQMIG30C2040</t>
+          <t>SQMIG35G2163</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/lubricant-additives-market</t>
+          <t>https://www.skyquestt.com/report/ambulance-service-market</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SQMIG15A2313</t>
+          <t>SQMIG35D2090</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agricultural-enzymes-market</t>
+          <t>https://www.skyquestt.com/report/personal-mobility-devices-market</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SQMIG15C2070</t>
+          <t>SQMIG35G2289</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/food-container-market</t>
+          <t>https://www.skyquestt.com/report/medical-devices-market</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SQMIG15F2121</t>
+          <t>SQMIG35J2050</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/aromatic-solvents-market</t>
+          <t>https://www.skyquestt.com/report/bioreactors-market</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SQMIG15E2133</t>
+          <t>SQMIG35H2293</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/refrigerators-market</t>
+          <t>https://www.skyquestt.com/report/cell-culture-market</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SQMIG25H2034</t>
+          <t>SQMIG35H2257</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/green-cement-market</t>
+          <t>https://www.skyquestt.com/report/surgical-robots-market</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SQMIG15F2081</t>
+          <t>SQMIG35B2209</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bakery-products-market</t>
+          <t>https://www.skyquestt.com/report/recombinant-protein-market</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SQMIG25E2039</t>
+          <t>SQMIG35H2039</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/waterborne-coatings-market</t>
+          <t>https://www.skyquestt.com/report/livestock-monitoring-market</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SQMIG15E2123</t>
+          <t>SQMIG35G2298</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-polymers-market</t>
+          <t>https://www.skyquestt.com/report/medical-equipment-maintenance-market</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SQMIG15A2347</t>
+          <t>SQMIG35D2261</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/waste-recycling-services-market</t>
+          <t>https://www.skyquestt.com/report/fitness-tracker-market</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SQMIG20L2042</t>
+          <t>SQMIG35J2124</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/air-insulated-switchgear-market</t>
+          <t>https://www.skyquestt.com/report/radiofrequency-ablation-devices-market</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SQMIG20D2257</t>
+          <t>SQMIG35A2903</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-led-lighting-market</t>
+          <t>https://www.skyquestt.com/report/herbal-supplements-market</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SQMIG25A2184</t>
+          <t>SQMIG35I2351</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/augmented-reality-in-retail-market</t>
+          <t>https://www.skyquestt.com/report/biochip-market</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SQMIG45E2243</t>
+          <t>SQMIG45A2235</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/metering-pumps-market</t>
+          <t>https://www.skyquestt.com/report/live-cell-imaging-market</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SQMIG20C2012</t>
+          <t>SQMIG35H2292</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/mobile-crane-market</t>
+          <t>https://www.skyquestt.com/report/orphan-drug-market</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SQSG25C2004</t>
+          <t>SQMIG30A2005</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/construction-adhesives-market</t>
+          <t>https://www.skyquestt.com/report/medical-radiation-shielding-market</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SQMIG20B2047</t>
+          <t>SQMIG35H2295</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fall-protection-market</t>
+          <t>https://www.skyquestt.com/report/insulin-market</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SQMIG20C2051</t>
+          <t>SQMIG35A2943</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/electric-submersible-pump-market</t>
+          <t>https://www.skyquestt.com/report/auto-injector-market</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SQMIG20D2145</t>
+          <t>SQMIG35B2104</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/electric-van-market</t>
+          <t>https://www.skyquestt.com/report/breathable-films-market</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SQMIG25C2128</t>
+          <t>SQMIG35A2942</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/farm-equipment-rental-market</t>
+          <t>https://www.skyquestt.com/report/veterinary-imaging-market</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SQMIG20H2041</t>
+          <t>SQMIG35G2299</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/unsaturated-polyester-resins-market</t>
+          <t>https://www.skyquestt.com/report/botox-market</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SQMIG15E2408</t>
+          <t>SQMIG35H2296</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/silicon-metal-market</t>
+          <t>https://www.skyquestt.com/report/stem-cell-banking-market</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SQMIG15J2056</t>
+          <t>SQMIG35H2294</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/soil-conditioners-market</t>
+          <t>https://www.skyquestt.com/report/process-analyzer-market</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SQMIG30H2120</t>
+          <t>SQMIG35I2353</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/aluminum-composite-panels-market</t>
+          <t>https://www.skyquestt.com/report/healthcare-supply-chain-management-market</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SQMIG15F2083</t>
+          <t>SQMIG35D2272</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-antenna-market</t>
+          <t>https://www.skyquestt.com/report/laboratory-information-system-market</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SQSG25E2011</t>
+          <t>SQMIG35C2028</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agricultural-adjuvants-market</t>
+          <t>https://www.skyquestt.com/report/body-composition-analyzers-market</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SQMIG15C2038</t>
+          <t>SQMIG35A2946</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/diesel-power-engine-market</t>
+          <t>https://www.skyquestt.com/report/physiotherapy-equipment-market</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SQMIG20I2284</t>
+          <t>SQMIG35A2945</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/herbicides-market</t>
+          <t>https://www.skyquestt.com/report/radiation-oncology-market</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SQMIG15A2110</t>
+          <t>SQMIG35A2944</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hydrogen-energy-storage-market</t>
+          <t>https://www.skyquestt.com/report/weight-management-market</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SQMIG10E2022</t>
+          <t>SQMIG35A2948</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/silicone-market</t>
+          <t>https://www.skyquestt.com/report/healthcare-analytical-testing-services-market</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SQMIG15E2405</t>
+          <t>SQMIG35D2273</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nitrogenous-fertilizer-market</t>
+          <t>https://www.skyquestt.com/report/scar-treatment-market</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SQMIG15A2101</t>
+          <t>SQMIG35A2949</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/water-soluble-fertilizer-market</t>
+          <t>https://www.skyquestt.com/report/immunotherapy-drugs-market</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SQMIG30H2051</t>
+          <t>SQMIG35I2354</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/battery-additives-market</t>
+          <t>https://www.skyquestt.com/report/breast-reconstruction-market</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SQMIG15A2320</t>
+          <t>SQMIG35A2947</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/antimicrobial-packaging-market</t>
+          <t>https://www.skyquestt.com/report/gas-chromatography-market</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SQMIG15G2068</t>
+          <t>SQMIG35G2292</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/acrylic-resin-market</t>
+          <t>https://www.skyquestt.com/report/protein-a-resin-market</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SQMIG15A2350</t>
+          <t>SQMIG35H2301</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/retort-packaging-market</t>
+          <t>https://www.skyquestt.com/report/vitamin-d-testing-market</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SQMIG15G2069</t>
+          <t>SQMIG35B2215</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-energy-market</t>
+          <t>https://www.skyquestt.com/report/cardiac-biomarkers-market</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SQMIG55F2028</t>
+          <t>SQMIG35A2951</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fuel-cell-vehicle-market</t>
+          <t>https://www.skyquestt.com/report/healthcare-packaging-market</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SQMIG55F2046</t>
+          <t>SQMIG15H2069</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/screw-compressor-market</t>
+          <t>https://www.skyquestt.com/report/car-t-cell-therapy-market</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SQMIG15F2164</t>
+          <t>SQMIG35H2300</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/geothermal-power-market</t>
+          <t>https://www.skyquestt.com/report/cell-and-gene-therapy-market</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SQMIG55F2030</t>
+          <t>SQMIG35G2300</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/organic-pet-food-market</t>
+          <t>https://www.skyquestt.com/report/human-microbiome-market</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SQMIG30I2385</t>
+          <t>SQMIG35H2299</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-grid-sensors-market</t>
+          <t>https://www.skyquestt.com/report/cell-isolation-market</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SQMIG15A2432</t>
+          <t>SQMIG35H2298</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bulletproof-glass-market</t>
+          <t>https://www.skyquestt.com/report/metaverse-in-healthcare-market</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SQMIG15G2090</t>
+          <t>SQMIG35H2297</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/glass-fiber-market</t>
+          <t>https://www.skyquestt.com/report/bone-graft-substitutes-market</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SQMIG15A2427</t>
+          <t>SQMIG35A2257</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/security-robots-market</t>
+          <t>https://www.skyquestt.com/report/gas-meter-market</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SQMIG45J2202</t>
+          <t>SQMIG25G2014</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/water-recycle-and-reuse-market</t>
+          <t>https://www.skyquestt.com/report/patient-monitoring-devices-market</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SQMIG55D2021</t>
+          <t>SQMIG35A2950</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/transfection-technologies-market</t>
+          <t>https://www.skyquestt.com/report/vitamin-k2-market</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SQMIG15A2450</t>
+          <t>SQMIG35I2355</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/offshore-wind-power-market</t>
+          <t>https://www.skyquestt.com/report/disposable-incontinence-products-market</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SQMIG55E2047</t>
+          <t>SQMIG35B2216</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/food-logistics-market</t>
+          <t>https://www.skyquestt.com/report/hearing-amplifiers-market</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SQMIG30B2043</t>
+          <t>SQMIG35A2956</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biomass-power-generation-market</t>
+          <t>https://www.skyquestt.com/report/wearable-patch-market</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SQMIG55F2054</t>
+          <t>SQMIG35H2304</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/consumer-robotics-market</t>
+          <t>https://www.skyquestt.com/report/hemodialysis-and-peritoneal-dialysis-market</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SQMIG25E2123</t>
+          <t>SQMIG35D2277</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/grow-light-market</t>
+          <t>https://www.skyquestt.com/report/biopsy-devices-market</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SQMIG55A2048</t>
+          <t>SQMIG35A2955</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nuclear-decommissioning-market</t>
+          <t>https://www.skyquestt.com/report/healthcare-interoperability-solutions-market</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SQMIG20N2026</t>
+          <t>SQMIG35D2275</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/proximity-sensors-market</t>
+          <t>https://www.skyquestt.com/report/optical-imaging-market</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SQMIG25A2134</t>
+          <t>SQMIG35A2954</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/e-discovery-software-market</t>
+          <t>https://www.skyquestt.com/report/proton-pump-inhibitors-market</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SQSG45E2033</t>
+          <t>SQMIG35B2218</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/shore-power-market</t>
+          <t>https://www.skyquestt.com/report/inhalation-anesthesia-market</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SQMIG20E2076</t>
+          <t>SQMIG35B2217</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/data-annotation-tools-market</t>
+          <t>https://www.skyquestt.com/report/artificial-organs-market</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SQMIG45C2064</t>
+          <t>SQMIG35H2303</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/robotic-air-purifier-market</t>
+          <t>https://www.skyquestt.com/report/atherectomy-devices-market</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SQMIG25A2324</t>
+          <t>SQMIG35A2953</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/artificial-intelligence-based-personalization-market</t>
+          <t>https://www.skyquestt.com/report/breast-imaging-market</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SQMIG45A2301</t>
+          <t>SQMIG35A2952</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-digital-key-market</t>
+          <t>https://www.skyquestt.com/report/positron-emission-tomography-market</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SQMIG25A2314</t>
+          <t>SQMIG35D2276</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/knowledge-process-outsourcing-market</t>
+          <t>https://www.skyquestt.com/report/transradial-access-devices-market</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SQMIG45C2060</t>
+          <t>SQMIG35H2302</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/product-lifecycle-management-market</t>
+          <t>https://www.skyquestt.com/report/life-science-tool-market</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SQMIG45E2204</t>
+          <t>SQSG35J2006</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/autonomous-mobile-robot-market</t>
+          <t>https://www.skyquestt.com/report/cancer-monoclonal-antibodies-market</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SQMIG45A2375</t>
+          <t>SQMIG35H2308</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/motorcycle-sensors-market</t>
+          <t>https://www.skyquestt.com/report/antifungal-drugs-market</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SQMIG25A2312</t>
+          <t>SQMIG35I2358</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/food-processing-equipment-market</t>
+          <t>https://www.skyquestt.com/report/e-prescribing-market</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SQMIG20E2054</t>
+          <t>SQMIG35F2016</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-catalyst-market</t>
+          <t>https://www.skyquestt.com/report/medical-terminology-software-market</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SQMIG25A2141</t>
+          <t>SQMIG35J2125</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/large-format-printers-market</t>
+          <t>https://www.skyquestt.com/report/probiotic-ingredients-market</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SQMIG20D2086</t>
+          <t>SQMIG35H2306</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/railway-wiring-harness-market</t>
+          <t>https://www.skyquestt.com/report/cell-counting-market</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SQMIG20U2014</t>
+          <t>SQMIG35H2305</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/utility-battery-market</t>
+          <t>https://www.skyquestt.com/report/age-related-macular-degeneration-market</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SQMIG20D2265</t>
+          <t>SQMIG35I2357</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/friction-stir-welding-equipment-market</t>
+          <t>https://www.skyquestt.com/report/phototherapy-equipment-market</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SQMIG20E2082</t>
+          <t>SQMIG35A2926</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/power-metering-market</t>
+          <t>https://www.skyquestt.com/report/bronchoscopes-market</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SQMIG20D2266</t>
+          <t>SQMIG35A2957</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/municipal-solid-waste-management-market</t>
+          <t>https://www.skyquestt.com/report/bioremediation-market</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SQMIG20L2036</t>
+          <t>SQMIG20L2052</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/delivery-drones-market</t>
+          <t>https://www.skyquestt.com/report/small-molecule-api-market</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SQMIG20R2015</t>
+          <t>SQMIG35I2356</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pharmaceutical-logistics-market</t>
+          <t>https://www.skyquestt.com/report/pharmaceutical-contract-packaging-market</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SQMIG35I2336</t>
+          <t>SQMIG35H2311</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-mirror-market</t>
+          <t>https://www.skyquestt.com/report/anti-acne-cosmetics-market</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SQMIG45I2077</t>
+          <t>SQMIG30L2256</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ambient-light-sensor-market</t>
+          <t>https://www.skyquestt.com/report/urinary-drainage-bags-market</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SQMIG45J2201</t>
+          <t>SQMIG35H2310</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/mining-truck-market</t>
+          <t>https://www.skyquestt.com/report/clinical-trial-imaging-market</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SQMIG20G2055</t>
+          <t>SQMIG35H2309</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/high-speed-camera-market</t>
+          <t>https://www.skyquestt.com/report/veterinary-artificial-insemination-market</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SQMIG45A2221</t>
+          <t>SQMIG35A2962</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-sewing-machines-market</t>
+          <t>https://www.skyquestt.com/report/blood-culture-tests-market</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SQMIG20I2275</t>
+          <t>SQMIG35D2281</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/3d-scanning-market</t>
+          <t>https://www.skyquestt.com/report/artificial-insemination-market</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SQMIG45I2079</t>
+          <t>SQMIG35A2961</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fusion-splicer-market</t>
+          <t>https://www.skyquestt.com/report/peptide-synthesis-market</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SQMIG45A2254</t>
+          <t>SQMIG35H2313</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/battery-energy-storage-market</t>
+          <t>https://www.skyquestt.com/report/photoacoustic-imaging-market</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SQMIG25A2326</t>
+          <t>SQMIG35A2960</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hdmi-cable-market</t>
+          <t>https://www.skyquestt.com/report/behavioral-rehabilitation-market</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SQMIG45A2255</t>
+          <t>SQMIG35D2280</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hybrid-fiber-coaxial-market</t>
+          <t>https://www.skyquestt.com/report/cancer-registry-software-market</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SQMIG45A2253</t>
+          <t>SQMIG35G2301</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-pumps-market</t>
+          <t>https://www.skyquestt.com/report/nuclear-imaging-equipment-market</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SQMIG25A2218</t>
+          <t>SQMIG35A2959</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cloud-encryption-software-market</t>
+          <t>https://www.skyquestt.com/report/migraine-drugs-market</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SQMIG45A2313</t>
+          <t>SQMIG35I2350</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-pressure-sensors-market</t>
+          <t>https://www.skyquestt.com/report/pyrogen-testing-market</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SQMIG25A2271</t>
+          <t>SQMIG35D2279</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hydraulic-dosing-pump-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-biotechnology-market</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SQSG20I2019</t>
+          <t>SQMIG20L2053</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hydraulic-equipment-market</t>
+          <t>https://www.skyquestt.com/report/cosmetic-implants-market</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SQMIG20I2193</t>
+          <t>SQMIG35A2958</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/aircraft-mro-market</t>
+          <t>https://www.skyquestt.com/report/rosacea-treatment-market</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SQMIG20S2009</t>
+          <t>SQMIG30L2257</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/heavy-construction-equipment-market</t>
+          <t>https://www.skyquestt.com/report/medical-document-management-systems-market</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SQMIG20C2032</t>
+          <t>SQMIG35D2278</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/service-integration-and-management-market</t>
+          <t>https://www.skyquestt.com/report/chronic-wound-care-market</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SQMIG45F2159</t>
+          <t>SQMIG35H2312</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cloud-discovery-market</t>
+          <t>https://www.skyquestt.com/report/cell-viability-assays-market</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SQMIG45D2101</t>
+          <t>SQMIG35H2315</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-solenoid-market</t>
+          <t>https://www.skyquestt.com/report/newborn-screening-market</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SQMIG25A2327</t>
+          <t>SQMIG35E2050</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-fuse-market</t>
+          <t>https://www.skyquestt.com/report/surgical-stapling-devices-market</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SQMIG25A2328</t>
+          <t>SQMIG35A2964</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/filling-equipment-market</t>
+          <t>https://www.skyquestt.com/report/dentures-market</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SQMIG20I2188</t>
+          <t>SQMIG35A2963</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/portable-air-purifier-market</t>
+          <t>https://www.skyquestt.com/report/surgical-retractors-market</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SQMIG20L2027</t>
+          <t>SQMIG35G2303</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-security-system-market</t>
+          <t>https://www.skyquestt.com/report/pharmacovigilance-and-drug-safety-software-market</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SQMIG20O2010</t>
+          <t>SQMIG35G2302</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hazardous-waste-management-market</t>
+          <t>https://www.skyquestt.com/report/gene-panel-market</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SQMIG20L2054</t>
+          <t>SQMIG35H2314</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fuel-cell-powertrain-market</t>
+          <t>https://www.skyquestt.com/report/cleanroom-consumables-market</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SQMIG10B2029</t>
+          <t>SQMIG35A2911</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/busbar-trunking-system-market</t>
+          <t>https://www.skyquestt.com/report/vital-signs-monitoring-devices-market</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SQMIG55A2049</t>
+          <t>SQMIG35A2912</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/phosphoric-acid-fuel-cell-market</t>
+          <t>https://www.skyquestt.com/report/biological-safety-cabinet-market</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SQMIG55F2044</t>
+          <t>SQMIG35J2119</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/artichokes-market</t>
+          <t>https://www.skyquestt.com/report/light-therapy-market</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SQSG30C2012</t>
+          <t>SQMIG35J2120</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-kitchen-appliances-market</t>
+          <t>https://www.skyquestt.com/report/personalized-medicines-market</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SQMIG25I2027</t>
+          <t>SQMIG35H2307</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ultrasonic-cleaning-equipment-market</t>
+          <t>https://www.skyquestt.com/report/autonomous-vehicles-market</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SQMIG20N2032</t>
+          <t>SQMIG25C2055</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-brakes-market</t>
+          <t>https://www.skyquestt.com/report/antibody-drug-conjugates-market</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SQMIG20I2281</t>
+          <t>SQMIG35I2342</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ruminant-feed-market</t>
+          <t>https://www.skyquestt.com/report/wearable-medical-devices-market</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SQSG30C2018</t>
+          <t>SQMIG35A2674</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/micro-packaging-market</t>
+          <t>https://www.skyquestt.com/report/smart-home-market</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SQMIG15G2066</t>
+          <t>SQMIG45I2100</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/artificial-turf-market</t>
+          <t>https://www.skyquestt.com/report/cloud-storage-market</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SQMIG15F2105</t>
+          <t>SQMIG45F2073</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/carnauba-wax-market</t>
+          <t>https://www.skyquestt.com/report/green-technology-and-sustainability-market</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SQMIG15E2439</t>
+          <t>SQMIG45B2034</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ambient-lighting-market</t>
+          <t>https://www.skyquestt.com/report/cloud-analytics-market</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SQMIG25E2074</t>
+          <t>SQMIG45B2044</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agricultural-lubricants-market</t>
+          <t>https://www.skyquestt.com/report/industrial-internet-of-things-iiot-market</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SQMIG15C2014</t>
+          <t>SQMIG45A2329</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fuel-dispenser-market</t>
+          <t>https://www.skyquestt.com/report/telecom-service-assurance-market</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SQMIG10B2018</t>
+          <t>SQMIG45J2078</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/tobacco-packaging-market</t>
+          <t>https://www.skyquestt.com/report/military-robots-market</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SQMIG30J2026</t>
+          <t>SQMIG45I2159</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/subsea-manifolds-market</t>
+          <t>https://www.skyquestt.com/report/gas-insulated-transformer-market</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SQMIG15F2106</t>
+          <t>SQMIG45K2107</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/egg-replacement-ingredients-market</t>
+          <t>https://www.skyquestt.com/report/spectrometry-market</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SQMIG30C2066</t>
+          <t>SQMIG35J2126</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nanomaterials-market</t>
+          <t>https://www.skyquestt.com/report/bioprocess-validation-market</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SQMIG15B2044</t>
+          <t>SQMIG35H2319</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/water-soluble-polymers-market</t>
+          <t>https://www.skyquestt.com/report/pupillometer-market</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SQMIG15E2370</t>
+          <t>SQMIG35A2968</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/Power-Bank-Market</t>
+          <t>https://www.skyquestt.com/report/intravenous-solutions-market</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SQMIG25E2040</t>
+          <t>SQMIG35E2051</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nitrous-oxide-market</t>
+          <t>https://www.skyquestt.com/report/cementless-total-knee-arthroplasty-market</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SQMIG15A2304</t>
+          <t>SQMIG35A2965</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/3d-printing-construction-market</t>
+          <t>https://www.skyquestt.com/report/microcatheters-market</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SQMIG15F2108</t>
+          <t>SQMIG35A2967</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/lignin-market</t>
+          <t>https://www.skyquestt.com/report/ventricular-assist-devices-market</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SQMIG15C2039</t>
+          <t>SQMIG35A2966</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/thermoplastic-elastomer-market</t>
+          <t>https://www.skyquestt.com/report/ivd-contract-manufacturing-market</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SQMIG15E2162</t>
+          <t>SQMIG35H2317</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/piezoelectric-materials-market</t>
+          <t>https://www.skyquestt.com/report/ultrasound-equipment-market</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SQMIG15A2119</t>
+          <t>SQMIG35A2969</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/legumes-market</t>
+          <t>https://www.skyquestt.com/report/concierge-medicine-market</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SQMIG30B2021</t>
+          <t>SQMIG35H2318</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-fasteners-market</t>
+          <t>https://www.skyquestt.com/report/cell-analysis-market</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SQMIG15B2042</t>
+          <t>SQMIG35H2316</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/microinsurance-market</t>
+          <t>https://www.skyquestt.com/report/medical-foods-market</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SQMIG40N2004</t>
+          <t>SQMIG35I2345</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fluorspar-market</t>
+          <t>https://www.skyquestt.com/report/medical-specialty-bags-market</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SQMIG15J2027</t>
+          <t>SQMIG35B2219</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/green-technology-and-sustainability-market</t>
+          <t>https://www.skyquestt.com/report/infection-surveillance-solutions-market</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SQMIG45B2034</t>
+          <t>SQMIG35G2304</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/spatial-light-modulator-market</t>
+          <t>https://www.skyquestt.com/report/drug-delivery-devices-market</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SQMIG55A2029</t>
+          <t>SQMIG35A2918</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/resorcinol-market</t>
+          <t>https://www.skyquestt.com/report/legionella-testing-market</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SQMIG15E2265</t>
+          <t>SQMIG35D2264</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/feed-acidifiers-market</t>
+          <t>https://www.skyquestt.com/report/evtol-aircraft-market</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SQMIG15C2049</t>
+          <t>SQMIG20A2275</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bio-based-propylene-glycol-market</t>
+          <t>https://www.skyquestt.com/report/nutrigenomics-market</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SQMIG15A2171</t>
+          <t>SQMIG35H2266</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ceramic-membrane-market</t>
+          <t>https://www.skyquestt.com/report/automotive-wrap-films-market</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SQMIG15E2409</t>
+          <t>SQMIG25A2323</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/water-softening-systems-market</t>
+          <t>https://www.skyquestt.com/report/isostatic-pressing-market</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SQMIG55D2009</t>
+          <t>SQMIG20A2266</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/flexible-glass-market</t>
+          <t>https://www.skyquestt.com/report/air-freshener-market</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SQMIG15G2061</t>
+          <t>SQMIG25Z2015</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/green-tires-market</t>
+          <t>https://www.skyquestt.com/report/thermoplastic-composites-market</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SQMIG25B2013</t>
+          <t>SQMIG15E2548</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/glyoxylic-acid-market</t>
+          <t>https://www.skyquestt.com/report/satellite-internet-market</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SQMIG30L2223</t>
+          <t>SQMIG45B2158</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/building-thermal-insulation-market</t>
+          <t>https://www.skyquestt.com/report/nitrocellulose-market</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SQMIG15F2118</t>
+          <t>SQMIG15E2549</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/advanced-polymer-composites-market</t>
+          <t>https://www.skyquestt.com/report/web-analytics-market</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SQMIG15B2105</t>
+          <t>SQMIG45B2157</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/arachidonic-acid-market</t>
+          <t>https://www.skyquestt.com/report/commercial-telematics-market</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SQMIG15A2209</t>
+          <t>SQMIG45E2269</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/carmine-market</t>
+          <t>https://www.skyquestt.com/report/low-speed-electric-vehicle-market</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SQMIG30C2135</t>
+          <t>SQMIG10A2046</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cosmetic-products-market</t>
+          <t>https://www.skyquestt.com/report/smart-waste-management-market</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SQMIG30L2224</t>
+          <t>SQMIG45E2268</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/offshore-wind-turbine-market</t>
+          <t>https://www.skyquestt.com/report/pay-tv-market</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SQMIG10B2084</t>
+          <t>SQMIG45I2219</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-wheel-market</t>
+          <t>https://www.skyquestt.com/report/smart-fleet-management-market</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SQMIG25B2015</t>
+          <t>SQMIG45E2267</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/emission-control-catalysts-market</t>
+          <t>https://www.skyquestt.com/report/chatbot-market</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SQMIG15A2336</t>
+          <t>SQMIG45A2039</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/flame-retardants-market</t>
+          <t>https://www.skyquestt.com/report/cannabidiol-market</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SQMIG15A2338</t>
+          <t>SQMIG35I2339</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/flock-adhesives-market</t>
+          <t>https://www.skyquestt.com/report/smart-parking-market</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SQMIG15E2294</t>
+          <t>SQMIG45M2018</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/coal-tar-pitch-market</t>
+          <t>https://www.skyquestt.com/report/esterquats-market</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SQMIG10G2026</t>
+          <t>SQSG15A2024</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/high-performance-ceramic-coatings-market</t>
+          <t>https://www.skyquestt.com/report/biochar-market</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SQMIG15B2102</t>
+          <t>SQMIG15C2016</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/adhesion-barrier-market</t>
+          <t>https://www.skyquestt.com/report/car-rental-market</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SQMIG15B2076</t>
+          <t>SQMIG25AG2009</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agriculture-equipment-market</t>
+          <t>https://www.skyquestt.com/report/customer-experience-management-market</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SQSG20H2003</t>
+          <t>SQMIG20Q2006</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-plastics-market</t>
+          <t>https://www.skyquestt.com/report/kombucha-market</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SQMIG15E2132</t>
+          <t>SQMIG30F2020</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/specialty-food-ingredients-market</t>
+          <t>https://www.skyquestt.com/report/activated-carbon-market</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SQMIG30H2082</t>
+          <t>SQMIG15B2101</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/geosynthetics-market</t>
+          <t>https://www.skyquestt.com/report/carbon-credits-market</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SQMIG15E2173</t>
+          <t>SQMIG25E2111</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fiberglass-market</t>
+          <t>https://www.skyquestt.com/report/heat-pump-market</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SQMIG15E2167</t>
+          <t>SQMIG10B2075</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/conductive-inks-market</t>
+          <t>https://www.skyquestt.com/report/industrial-gases-market</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SQMIG20K2006</t>
+          <t>SQMIG10B2039</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-chromium-market</t>
+          <t>https://www.skyquestt.com/report/cold-chain-market</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SQMIG15A2299</t>
+          <t>SQMIG25C2104</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/synthetic-rubber-market</t>
+          <t>https://www.skyquestt.com/report/identity-verification-market</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SQMIG15A2103</t>
+          <t>SQMIG45B2134</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biometrics-market</t>
+          <t>https://www.skyquestt.com/report/e-bike-market</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SQMIG45I2142</t>
+          <t>SQMIG25C2047</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/food-waste-management-market</t>
+          <t>https://www.skyquestt.com/report/aquaculture-market</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SQMIG20L2016</t>
+          <t>SQMIG30H2089</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-ethernet-market</t>
+          <t>https://www.skyquestt.com/report/loyalty-management-market</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SQMIG25Z2013</t>
+          <t>SQMIG45B2159</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/solar-pv-mounting-systems-market</t>
+          <t>https://www.skyquestt.com/report/lithium-ion-battery-market</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SQMIG20E2044</t>
+          <t>SQMIG20D2153</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/retail-ready-packaging-market</t>
+          <t>https://www.skyquestt.com/report/smart-speaker-market</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SQMIG25Y2004</t>
+          <t>SQMIG25E2084</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/voice-biometrics-market</t>
+          <t>https://www.skyquestt.com/report/gas-turbine-market</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SQMIG50C2031</t>
+          <t>SQMIG55B2003</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/web-content-management-market</t>
+          <t>https://www.skyquestt.com/report/cosmetic-packaging-market</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SQMIG25E2109</t>
+          <t>SQMIG30L2113</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/critical-infrastructure-protection-market</t>
+          <t>https://www.skyquestt.com/report/enzymes-market</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SQMIG40J2006</t>
+          <t>SQSG30I2034</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/barcode-label-printer-market</t>
+          <t>https://www.skyquestt.com/report/bioethanol-market</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SQMIG25E2115</t>
+          <t>SQMIG10D2044</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biomass-pellets-market</t>
+          <t>https://www.skyquestt.com/report/extended-reality-market</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SQMIG10G2035</t>
+          <t>SQMIG45E2161</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/construction-fabrics-market</t>
+          <t>https://www.skyquestt.com/report/recreational-vehicle-market</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SQMIG15F2173</t>
+          <t>SQMIG20I2209</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/elastomeric-coatings-market</t>
+          <t>https://www.skyquestt.com/report/3d-printer-market</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SQMIG15E2469</t>
+          <t>SQMIG45J2073</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/propylene-carbonate-market</t>
+          <t>https://www.skyquestt.com/report/portable-generator-market</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SQMIG15E2515</t>
+          <t>SQMIG20E2066</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/microbial-enhanced-oil-recovery-market</t>
+          <t>https://www.skyquestt.com/report/dimethyl-ether-market</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SQMIG10C2028</t>
+          <t>SQMIG15E2344</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cnc-router-market</t>
+          <t>https://www.skyquestt.com/report/industrial-filtration-market</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SQMIG15F2159</t>
+          <t>SQMIG20I2154</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-lidar-sensors-market</t>
+          <t>https://www.skyquestt.com/report/polycarbonate-market</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SQMIG10A2030</t>
+          <t>SQMIG15E2343</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/directional-drilling-market</t>
+          <t>https://www.skyquestt.com/report/semiconductor-production-equipment-market</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SQMIG15F2167</t>
+          <t>SQMIG45N2084</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cast-acrylic-sheets-market</t>
+          <t>https://www.skyquestt.com/report/epoxy-resin-market</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SQMIG15G2086</t>
+          <t>SQSG15A2048</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/oil-and-gas-accumulator-market</t>
+          <t>https://www.skyquestt.com/report/masterbatch-market</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SQMIG15F2146</t>
+          <t>SQMIG15E2169</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/slickline-services-market</t>
+          <t>https://www.skyquestt.com/report/industrial-hemp-market</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SQMIG15A2414</t>
+          <t>SQMIG15P2005</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/flare-gas-recovery-system-market</t>
+          <t>https://www.skyquestt.com/report/crop-protection-chemicals-market</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SQMIG15A2434</t>
+          <t>SQMIG15C2035</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/heat-transfer-fluid-market</t>
+          <t>https://www.skyquestt.com/report/asset-performance-management-market</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SQMIG15E2503</t>
+          <t>SQMIG40J2004</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/semiconductor-capital-equipment-market</t>
+          <t>https://www.skyquestt.com/report/payment-processing-solutions-market</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SQMIG15A2433</t>
+          <t>SQMIG40J2005</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/tire-pressure-monitoring-system-market</t>
+          <t>https://www.skyquestt.com/report/high-performance-computing-market</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SQMIG25B2024</t>
+          <t>SQMIG45B2029</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-generator-market</t>
+          <t>https://www.skyquestt.com/report/flow-battery-market</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SQMIG10C2031</t>
+          <t>SQMIG55F2057</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/advanced-functional-materials-market</t>
+          <t>https://www.skyquestt.com/report/digital-map-market</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SQMIG15A2420</t>
+          <t>SQMIG45B2136</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ground-engaging-tools-market</t>
+          <t>https://www.skyquestt.com/report/commercial-vehicle-market</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SQMIG55A2044</t>
+          <t>SQMIG20V2002</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/metallurgical-coal-market</t>
+          <t>https://www.skyquestt.com/report/blockchain-gaming-market</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SQMIG10A2032</t>
+          <t>SQMIG45E2251</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/articulated-robots-market</t>
+          <t>https://www.skyquestt.com/report/space-tourism-market</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SQMIG55A2051</t>
+          <t>SQMIG20S2010</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/wireless-gas-detection-market</t>
+          <t>https://www.skyquestt.com/report/forklift-market</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SQMIG10B2105</t>
+          <t>SQMIG20G2021</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/volatile-organic-compound-gas-sensor-market</t>
+          <t>https://www.skyquestt.com/report/sulfuric-acid-market</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SQMIG10A2047</t>
+          <t>SQMIG15A2309</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/robotic-paint-booth-market</t>
+          <t>https://www.skyquestt.com/report/catalyst-market</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SQMIG10A2048</t>
+          <t>SQMIG15E2342</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/solar-battery-market</t>
+          <t>https://www.skyquestt.com/report/insect-protein-market</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SQMIG55A2050</t>
+          <t>SQSG30I2040</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hospitality-robots-market</t>
+          <t>https://www.skyquestt.com/report/clinical-nutrition-market</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SQMIG25S2055</t>
+          <t>SQMIG30A2012</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gear-oil-market</t>
+          <t>https://www.skyquestt.com/report/hydrogen-storage-market</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SQMIG15A2438</t>
+          <t>SQMIG55B2005</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/sapphire-glass-market</t>
+          <t>https://www.skyquestt.com/report/commercial-drone-market</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SQMIG15M2015</t>
+          <t>SQMIG20A2044</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/archery-equipment-market</t>
+          <t>https://www.skyquestt.com/report/high-purity-alumina-market</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SQMIG25J2076</t>
+          <t>SQMIG15E2303</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/floor-adhesive-market</t>
+          <t>https://www.skyquestt.com/report/smart-warehousing-market</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SQMIG15E2535</t>
+          <t>SQMIG45D2053</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/liquid-polybutadiene-market</t>
+          <t>https://www.skyquestt.com/report/payment-gateway-market</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SQMIG15E2536</t>
+          <t>SQSG45E2040</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/middle-office-outsourcing-market</t>
+          <t>https://www.skyquestt.com/report/air-compressor-market</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SQMIG60D2001</t>
+          <t>SQSG20I2028</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/liquid-detergent-market</t>
+          <t>https://www.skyquestt.com/report/flow-meter-market</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SQMIG30K2054</t>
+          <t>SQMIG20D2184</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/software-defined-data-center-market</t>
+          <t>https://www.skyquestt.com/report/lab-automation-market</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SQMIG45E2197</t>
+          <t>SQMIG20D2061</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/speech-and-voice-recognition-market</t>
+          <t>https://www.skyquestt.com/report/fog-computing-market</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SQMIG45J2063</t>
+          <t>SQMIG45F2040</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/enterprise-architecture-tools-market</t>
+          <t>https://www.skyquestt.com/report/plastic-processing-machinery-market</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SQMIG45B2066</t>
+          <t>SQMIG20I2184</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/radar-sensor-market</t>
+          <t>https://www.skyquestt.com/report/industrial-hose-market</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SQMIG25A2054</t>
+          <t>SQMIG20B2069</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/air-brake-system-market</t>
+          <t>https://www.skyquestt.com/report/hyperspectral-imaging-market</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SQMIG25A2163</t>
+          <t>SQMIG45J2128</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/battery-swapping-market</t>
+          <t>https://www.skyquestt.com/report/virtual-reality-in-gaming-market</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SQMIG25A2329</t>
+          <t>SQMIG45D2048</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/progressive-cavity-pump-market</t>
+          <t>https://www.skyquestt.com/report/aircraft-engine-market</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SQMIG20A2276</t>
+          <t>SQMIG20S2011</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/vacuum-coating-equipment-market</t>
+          <t>https://www.skyquestt.com/report/rehabilitation-robots-market</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SQMIG20I2181</t>
+          <t>SQMIG45A2373</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/wearable-camera-market</t>
+          <t>https://www.skyquestt.com/report/smart-greenhouse-market</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SQMIG20D2069</t>
+          <t>SQMIG20H2008</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/parental-control-software-market</t>
+          <t>https://www.skyquestt.com/report/robotic-lawn-mower-market</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SQMIG50J2007</t>
+          <t>SQSG20H2001</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/robotic-flexible-washer-market</t>
+          <t>https://www.skyquestt.com/report/functional-water-market</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>SQMIG45A2376</t>
+          <t>SQMIG30F2036</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/robotic-wheelchairs-market</t>
+          <t>https://www.skyquestt.com/report/secondary-battery-market</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SQMIG25A2330</t>
+          <t>SQMIG20D2229</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-refrigeration-market</t>
+          <t>https://www.skyquestt.com/report/electronic-chemicals-and-materials-market</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>SQMIG20N2020</t>
+          <t>SQMIG15E2339</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-front-end-module-market</t>
+          <t>https://www.skyquestt.com/report/polymer-foam-market</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>SQMIG25A2195</t>
+          <t>SQMIG15E2539</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bifacial-solar-market</t>
+          <t>https://www.skyquestt.com/report/infant-nutrition-market</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SQMIG45O2041</t>
+          <t>SQSG30I2042</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-data-logger-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-surfactants-market</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SQMIG25A2267</t>
+          <t>SQMIG15C2072</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-drive-shaft-market</t>
+          <t>https://www.skyquestt.com/report/base-oil-market</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>SQMIG25A2268</t>
+          <t>SQMIG55B2009</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-supercharger-market</t>
+          <t>https://www.skyquestt.com/report/open-banking-market</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SQMIG25A2270</t>
+          <t>SQMIG40A2004</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/adaptive-robotics-market</t>
+          <t>https://www.skyquestt.com/report/essential-oils-market</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>SQMIG45A2257</t>
+          <t>SQMIG30L2140</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-masks-market</t>
+          <t>https://www.skyquestt.com/report/battery-energy-storage-system-market</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SQMIG20N2021</t>
+          <t>SQMIG55C2005</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-shielding-market</t>
+          <t>https://www.skyquestt.com/report/blue-hydrogen-market</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>SQSG25AG2005</t>
+          <t>SQMIG10D2019</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/digital-shipyard-market</t>
+          <t>https://www.skyquestt.com/report/organic-baby-food-market</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SQMIG20Y2006</t>
+          <t>SQMIG30I2146</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/military-sensors-market</t>
+          <t>https://www.skyquestt.com/report/smart-bed-market</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>SQMIG25AG2008</t>
+          <t>SQMIG25F2064</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/uav-flight-training-and-simulation-market</t>
+          <t>https://www.skyquestt.com/report/release-liners-market</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>SQMIG45E2271</t>
+          <t>SQMIG15A2360</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/radiation-dose-management-market</t>
+          <t>https://www.skyquestt.com/report/synthetic-gypsum-market</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SQMIG45A2277</t>
+          <t>SQMIG15F2116</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-intelligent-lighting-system-market</t>
+          <t>https://www.skyquestt.com/report/landfill-gas-market</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SQMIG25A2331</t>
+          <t>SQMIG10C2020</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/position-sensor-market</t>
+          <t>https://www.skyquestt.com/report/pet-wearable-market</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SQSG45I2036</t>
+          <t>SQMIG25S2023</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-smart-display-market</t>
+          <t>https://www.skyquestt.com/report/medical-polymers-market</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>SQMIG25A2091</t>
+          <t>SQMIG15A2347</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/micro-mobility-market</t>
+          <t>https://www.skyquestt.com/report/industrial-wax-market</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>SQMIG25A2063</t>
+          <t>SQMIG15A2410</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/string-inverter-market</t>
+          <t>https://www.skyquestt.com/report/alkaline-battery-market</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SQMIG20E2043</t>
+          <t>SQSG20D2008</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/payment-security-market</t>
+          <t>https://www.skyquestt.com/report/torque-vectoring-market</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SQMIG20I2192</t>
+          <t>SQMIG25E2112</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/workplace-safety-market</t>
+          <t>https://www.skyquestt.com/report/image-sensor-market</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SQMIG20P2008</t>
+          <t>SQMIG45J2154</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/scooter-sharing-market</t>
+          <t>https://www.skyquestt.com/report/automotive-ethernet-market</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SQMIG20V2010</t>
+          <t>SQMIG25E2113</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-ignition-system-market</t>
+          <t>https://www.skyquestt.com/report/lithium-ion-battery-recycling-market</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SQMIG20D2210</t>
+          <t>SQMIG15A2413</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/okr-software-market</t>
+          <t>https://www.skyquestt.com/report/heat-recovery-steam-generator-market</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SQMIG45A2054</t>
+          <t>SQMIG20E2060</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/dynamic-positioning-system-market</t>
+          <t>https://www.skyquestt.com/report/battery-electrolyte-market</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SQMIG20A2042</t>
+          <t>SQMIG20D2224</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/educational-robot-market</t>
+          <t>https://www.skyquestt.com/report/voice-assistant-application-market</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SQMIG25A2332</t>
+          <t>SQMIG45E2270</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-fuel-tank-market</t>
+          <t>https://www.skyquestt.com/report/commercial-hvac-market</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SQMIG25A2161</t>
+          <t>SQMIG20D2234</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/Automotive-knock-sensor-market</t>
+          <t>https://www.skyquestt.com/report/drone-payload-market</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>SQMIG45O2048</t>
+          <t>SQMIG20D2258</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/metallic-stearate-market</t>
+          <t>https://www.skyquestt.com/report/secure-logistics-market</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SQMIG15F2064</t>
+          <t>SQMIG20R2016</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cloud-enterprise-application-software-market</t>
+          <t>https://www.skyquestt.com/report/wire-harness-market</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SQMIG45A2319</t>
+          <t>SQMIG20D2163</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/robo-advisory-market</t>
+          <t>https://www.skyquestt.com/report/automotive-airbag-market</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SQMIG45E2136</t>
+          <t>SQSG25A2013</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/waste-heat-recovery-system-market</t>
+          <t>https://www.skyquestt.com/report/busbar-market</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>SQMIG20I2106</t>
+          <t>SQMIG20D2189</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/integrated-marine-automation-system-market</t>
+          <t>https://www.skyquestt.com/report/polymer-modified-bitumen-market</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SQMIG20T2017</t>
+          <t>SQMIG20C2068</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/marine-engine-market</t>
+          <t>https://www.skyquestt.com/report/agriculture-analytics-market</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SQMIG25A2159</t>
+          <t>SQMIG45F2070</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/3d-printing-in-healthcare-market</t>
+          <t>https://www.skyquestt.com/report/energy-management-system-market</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SQMIG20C2025</t>
+          <t>SQMIG45F2071</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-3d-printing-market</t>
+          <t>https://www.skyquestt.com/report/hydraulic-fracturing-market</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>SQMIG20I2253</t>
+          <t>SQMIG20I2216</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/government-cloud-market</t>
+          <t>https://www.skyquestt.com/report/aerostructure-market</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>SQMIG45D2102</t>
+          <t>SQMIG20A2188</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/enterprise-information-archiving-market</t>
+          <t>https://www.skyquestt.com/report/alcoholic-beverages-market</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SQMIG45A2348</t>
+          <t>SQMIG30C2129</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/small-caliber-ammunition-market</t>
+          <t>https://www.skyquestt.com/report/polyurethane-foam-market</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SQSG20A2021</t>
+          <t>SQMIG15B2118</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pure-play-software-testing-services-market</t>
+          <t>https://www.skyquestt.com/report/smart-water-management-market</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SQSG45B2020</t>
+          <t>SQMIG55D2023</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/drone-software-market</t>
+          <t>https://www.skyquestt.com/report/vegan-cosmetics-market</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SQSG45E2010</t>
+          <t>SQMIG30L2195</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/process-mining-software-market</t>
+          <t>https://www.skyquestt.com/report/train-battery-market</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SQMIG45F2127</t>
+          <t>SQMIG20E2086</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/waterjet-cutting-machine-market</t>
+          <t>https://www.skyquestt.com/report/ceramics-market</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SQMIG20I2283</t>
+          <t>SQMIG15F2099</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/paralleling-switchgear-market</t>
+          <t>https://www.skyquestt.com/report/thermoelectric-generator-market</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SQMIG20E2083</t>
+          <t>SQMIG20D2264</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/transformer-monitoring-system-market</t>
+          <t>https://www.skyquestt.com/report/refrigerators-market</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SQMIG45J2182</t>
+          <t>SQMIG25H2034</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/earthing-equipment-market</t>
+          <t>https://www.skyquestt.com/report/food-container-market</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SQMIG20E2087</t>
+          <t>SQMIG15F2121</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/low-voltage-switchgear-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-enzymes-market</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SQMIG20E2089</t>
+          <t>SQMIG15C2070</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-3d-printing-market</t>
+          <t>https://www.skyquestt.com/report/green-cement-market</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>SQMIG45E2205</t>
+          <t>SQMIG15F2081</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fertility-test-market</t>
+          <t>https://www.skyquestt.com/report/lubricant-additives-market</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>SQMIG45A2234</t>
+          <t>SQMIG15A2313</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/aircraft-communication-system-market</t>
+          <t>https://www.skyquestt.com/report/waterborne-coatings-market</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SQMIG20A2206</t>
+          <t>SQMIG15E2123</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/traffic-sensor-market</t>
+          <t>https://www.skyquestt.com/report/aromatic-solvents-market</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SQMIG45J2200</t>
+          <t>SQMIG15E2133</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-intercooler-market</t>
+          <t>https://www.skyquestt.com/report/baking-ingredients-market</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SQMIG25A2274</t>
+          <t>SQMIG30C2040</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/broadcasting-equipment-market</t>
+          <t>https://www.skyquestt.com/report/waste-recycling-services-market</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SQMIG45H2059</t>
+          <t>SQMIG20L2042</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/tunable-laser-market</t>
+          <t>https://www.skyquestt.com/report/automotive-led-lighting-market</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SQMIG45J2224</t>
+          <t>SQMIG25A2184</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-garage-equipment-market</t>
+          <t>https://www.skyquestt.com/report/bakery-products-market</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SQMIG25A2284</t>
+          <t>SQMIG25E2039</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/poultry-feed-market</t>
+          <t>https://www.skyquestt.com/report/air-insulated-switchgear-market</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SQSG30C2017</t>
+          <t>SQMIG20D2257</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-seaweed-market</t>
+          <t>https://www.skyquestt.com/report/mobile-crane-market</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SQMIG30H2145</t>
+          <t>SQSG25C2004</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-battery-market</t>
+          <t>https://www.skyquestt.com/report/augmented-reality-in-retail-market</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SQMIG25A2333</t>
+          <t>SQMIG45E2243</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/advanced-composites-market</t>
+          <t>https://www.skyquestt.com/report/metering-pumps-market</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SQMIG15B2033</t>
+          <t>SQMIG20C2012</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/metal-recycling-market</t>
+          <t>https://www.skyquestt.com/report/electric-van-market</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>SQMIG15J2068</t>
+          <t>SQMIG25C2128</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/collagen-and-gelatin-market</t>
+          <t>https://www.skyquestt.com/report/construction-adhesives-market</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>SQMIG15A2091</t>
+          <t>SQMIG20B2047</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/intumescent-coatings-market</t>
+          <t>https://www.skyquestt.com/report/electric-submersible-pump-market</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>SQMIG15A2115</t>
+          <t>SQMIG20D2145</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ethane-market</t>
+          <t>https://www.skyquestt.com/report/fall-protection-market</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>SQMIG15E2166</t>
+          <t>SQMIG20C2051</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/super-absorbent-polymers-market</t>
+          <t>https://www.skyquestt.com/report/farm-equipment-rental-market</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SQMIG15E2130</t>
+          <t>SQMIG20H2041</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/soy-protein-ingredients-market</t>
+          <t>https://www.skyquestt.com/report/aluminum-composite-panels-market</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SQMIG30C2095</t>
+          <t>SQMIG15F2083</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/new-energy-vehicle-taxi-market</t>
+          <t>https://www.skyquestt.com/report/unsaturated-polyester-resins-market</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>SQMIG25E2114</t>
+          <t>SQMIG15E2408</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/acetic-anhydride-market</t>
+          <t>https://www.skyquestt.com/report/silicon-metal-market</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SQMIG15A2425</t>
+          <t>SQMIG15J2056</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/stick-packaging-market</t>
+          <t>https://www.skyquestt.com/report/diesel-power-engine-market</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SQMIG15H2061</t>
+          <t>SQMIG20I2284</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/rfid-printer-market</t>
+          <t>https://www.skyquestt.com/report/smart-antenna-market</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SQMIG25E2108</t>
+          <t>SQSG25E2011</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/organic-pesticides-market</t>
+          <t>https://www.skyquestt.com/report/herbicides-market</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SQMIG15A2370</t>
+          <t>SQMIG15A2110</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/potassium-formate-market</t>
+          <t>https://www.skyquestt.com/report/soil-conditioners-market</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SQMIG15A2409</t>
+          <t>SQMIG30H2120</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/water-softeners-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-adjuvants-market</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>SQMIG15E2514</t>
+          <t>SQMIG15C2038</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/boiler-control-market</t>
+          <t>https://www.skyquestt.com/report/silicone-market</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>SQMIG15A2415</t>
+          <t>SQMIG15E2405</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/diisononyl-phthalate-market</t>
+          <t>https://www.skyquestt.com/report/nitrogenous-fertilizer-market</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>SQMIG15E2480</t>
+          <t>SQMIG15A2101</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/polycarbonate-sheets-market</t>
+          <t>https://www.skyquestt.com/report/hydrogen-energy-storage-market</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>SQMIG15G2087</t>
+          <t>SQMIG10E2022</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ethylene-dichloride-market</t>
+          <t>https://www.skyquestt.com/report/water-soluble-fertilizer-market</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>SQMIG15A2411</t>
+          <t>SQMIG30H2051</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/superconducting-wire-market</t>
+          <t>https://www.skyquestt.com/report/battery-additives-market</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>SQMIG10A2041</t>
+          <t>SQMIG15A2320</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/radio-access-network-market</t>
+          <t>https://www.skyquestt.com/report/acrylic-resin-market</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>SQMIG45H2040</t>
+          <t>SQMIG15A2350</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/oil-condition-monitoring-market</t>
+          <t>https://www.skyquestt.com/report/antimicrobial-packaging-market</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>SQMIG10B2091</t>
+          <t>SQMIG15G2068</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ground-support-equipment-market</t>
+          <t>https://www.skyquestt.com/report/retort-packaging-market</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>SQMIG20A2215</t>
+          <t>SQMIG15G2069</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ammonium-carbonate-market</t>
+          <t>https://www.skyquestt.com/report/fuel-cell-vehicle-market</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>SQMIG15A2406</t>
+          <t>SQMIG55F2046</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/temporary-power-market</t>
+          <t>https://www.skyquestt.com/report/geothermal-power-market</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SQMIG55E2041</t>
+          <t>SQMIG55F2030</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/inventory-tags-market</t>
+          <t>https://www.skyquestt.com/report/organic-pet-food-market</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SQMIG15Q2012</t>
+          <t>SQMIG30I2385</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/food-robotics-market</t>
+          <t>https://www.skyquestt.com/report/smart-energy-market</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>SQMIG30C2155</t>
+          <t>SQMIG55F2028</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/antiscalants-scale-inhibitors-market</t>
+          <t>https://www.skyquestt.com/report/screw-compressor-market</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>SQMIG15E2506</t>
+          <t>SQMIG15F2164</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/lactoferrin-market</t>
+          <t>https://www.skyquestt.com/report/glass-fiber-market</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>SQMIG30I2351</t>
+          <t>SQMIG15A2427</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/wearable-medical-devices-market</t>
+          <t>https://www.skyquestt.com/report/smart-grid-sensors-market</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>SQMIG35A2674</t>
+          <t>SQMIG15A2432</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cannabidiol-market</t>
+          <t>https://www.skyquestt.com/report/bulletproof-glass-market</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>SQMIG35I2339</t>
+          <t>SQMIG15G2090</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
+          <t>https://www.skyquestt.com/report/offshore-wind-power-market</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SQMIG55E2047</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/water-recycle-and-reuse-market</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>SQMIG55D2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-logistics-market</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>SQMIG30B2043</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biomass-power-generation-market</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>SQMIG55F2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/transfection-technologies-market</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>SQMIG15A2450</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/security-robots-market</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>SQMIG45J2202</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/grow-light-market</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>SQMIG55A2048</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/consumer-robotics-market</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>SQMIG25E2123</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/artificial-intelligence-based-personalization-market</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>SQMIG45A2301</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-air-purifier-market</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>SQMIG25A2324</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/nuclear-decommissioning-market</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>SQMIG20N2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/proximity-sensors-market</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>SQMIG25A2134</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-digital-key-market</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>SQMIG25A2314</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/shore-power-market</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SQMIG20E2076</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/e-discovery-software-market</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>SQSG45E2033</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/data-annotation-tools-market</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>SQMIG45C2064</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/product-lifecycle-management-market</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>SQMIG45E2204</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-processing-equipment-market</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>SQMIG20E2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-catalyst-market</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>SQMIG25A2141</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/large-format-printers-market</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>SQMIG20D2086</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/railway-wiring-harness-market</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>SQMIG20U2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/knowledge-process-outsourcing-market</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>SQMIG45C2060</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/municipal-solid-waste-management-market</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>SQMIG20L2036</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/motorcycle-sensors-market</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>SQMIG25A2312</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/autonomous-mobile-robot-market</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>SQMIG45A2375</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/friction-stir-welding-equipment-market</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>SQMIG20E2082</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/power-metering-market</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>SQMIG20D2266</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/delivery-drones-market</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>SQMIG20R2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/utility-battery-market</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>SQMIG20D2265</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-sewing-machines-market</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>SQMIG20I2275</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pharmaceutical-logistics-market</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>SQMIG35I2336</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/smart-mirror-market</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>SQMIG45I2077</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/3d-scanning-market</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>SQMIG45I2079</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ambient-light-sensor-market</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>SQMIG45J2201</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/mining-truck-market</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>SQMIG20G2055</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hdmi-cable-market</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>SQMIG45A2255</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/high-speed-camera-market</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>SQMIG45A2221</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fusion-splicer-market</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>SQMIG45A2254</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-pumps-market</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>SQMIG25A2218</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cloud-encryption-software-market</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>SQMIG45A2313</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hybrid-fiber-coaxial-market</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>SQMIG45A2253</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-pressure-sensors-market</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>SQMIG25A2271</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/battery-energy-storage-market</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>SQMIG25A2326</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/service-integration-and-management-market</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>SQMIG45F2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-solenoid-market</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>SQMIG25A2327</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hydraulic-dosing-pump-market</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>SQSG20I2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-fuse-market</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>SQMIG25A2328</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cloud-discovery-market</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>SQMIG45D2101</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/aircraft-mro-market</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>SQMIG20S2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/heavy-construction-equipment-market</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>SQMIG20C2032</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hydraulic-equipment-market</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>SQMIG20I2193</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/portable-air-purifier-market</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>SQMIG20L2027</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/commercial-security-system-market</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>SQMIG20O2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/filling-equipment-market</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>SQMIG20I2188</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ultrasonic-cleaning-equipment-market</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>SQMIG20N2032</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hazardous-waste-management-market</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>SQMIG20L2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/phosphoric-acid-fuel-cell-market</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>SQMIG55F2044</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/busbar-trunking-system-market</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>SQMIG55A2049</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-brakes-market</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>SQMIG20I2281</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fuel-cell-powertrain-market</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>SQMIG10B2029</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/artichokes-market</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>SQSG30C2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/smart-kitchen-appliances-market</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>SQMIG25I2027</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/artificial-turf-market</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>SQMIG15F2105</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/micro-packaging-market</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>SQMIG15G2066</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ruminant-feed-market</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>SQSG30C2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/tobacco-packaging-market</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>SQMIG30J2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/carnauba-wax-market</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>SQMIG15E2439</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ambient-lighting-market</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>SQMIG25E2074</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fuel-dispenser-market</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>SQMIG10B2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/subsea-manifolds-market</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>SQMIG15F2106</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agricultural-lubricants-market</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>SQMIG15C2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/egg-replacement-ingredients-market</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>SQMIG30C2066</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/nitrous-oxide-market</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>SQMIG15A2304</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/nanomaterials-market</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>SQMIG15B2044</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/Power-Bank-Market</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>SQMIG25E2040</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/water-soluble-polymers-market</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>SQMIG15E2370</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/microinsurance-market</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>SQMIG40N2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-fasteners-market</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>SQMIG15B2042</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/3d-printing-construction-market</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>SQMIG15F2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/thermoplastic-elastomer-market</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>SQMIG15E2162</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/lignin-market</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>SQMIG15C2039</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/piezoelectric-materials-market</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>SQMIG15A2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/legumes-market</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>SQMIG30B2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fluorspar-market</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>SQMIG15J2027</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/spatial-light-modulator-market</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>SQMIG55A2029</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bio-based-propylene-glycol-market</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>SQMIG15A2171</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/water-softening-systems-market</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>SQMIG55D2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/feed-acidifiers-market</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>SQMIG15C2049</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ceramic-membrane-market</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>SQMIG15E2409</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/flexible-glass-market</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>SQMIG15G2061</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/resorcinol-market</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>SQMIG15E2265</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/carmine-market</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>SQMIG30C2135</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/arachidonic-acid-market</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>SQMIG15A2209</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cosmetic-products-market</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>SQMIG30L2224</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/green-tires-market</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>SQMIG25B2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/flame-retardants-market</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>SQMIG15A2338</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/advanced-polymer-composites-market</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>SQMIG15B2105</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/building-thermal-insulation-market</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>SQMIG15F2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/glyoxylic-acid-market</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>SQMIG30L2223</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/emission-control-catalysts-market</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>SQMIG15A2336</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-wheel-market</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>SQMIG25B2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/offshore-wind-turbine-market</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>SQMIG10B2084</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/flock-adhesives-market</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>SQMIG15E2294</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/adhesion-barrier-market</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>SQMIG15B2076</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/coal-tar-pitch-market</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>SQMIG10G2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/high-performance-ceramic-coatings-market</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>SQMIG15B2102</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-chromium-market</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>SQMIG15A2299</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agriculture-equipment-market</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>SQSG20H2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-plastics-market</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>SQMIG15E2132</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/conductive-inks-market</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>SQMIG20K2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/synthetic-rubber-market</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>SQMIG15A2103</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/geosynthetics-market</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>SQMIG15E2173</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fiberglass-market</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>SQMIG15E2167</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/specialty-food-ingredients-market</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>SQMIG30H2082</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biometrics-market</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>SQMIG45I2142</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/web-content-management-market</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>SQMIG25E2109</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/critical-infrastructure-protection-market</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>SQMIG40J2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-ethernet-market</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>SQMIG25Z2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-waste-management-market</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>SQMIG20L2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/solar-pv-mounting-systems-market</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>SQMIG20E2044</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/retail-ready-packaging-market</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>SQMIG25Y2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/voice-biometrics-market</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>SQMIG50C2031</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/barcode-label-printer-market</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>SQMIG25E2115</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/elastomeric-coatings-market</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>SQMIG15E2469</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biomass-pellets-market</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>SQMIG10G2035</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/propylene-carbonate-market</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>SQMIG15E2515</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/construction-fabrics-market</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>SQMIG15F2173</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cast-acrylic-sheets-market</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>SQMIG15G2086</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/heat-transfer-fluid-market</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>SQMIG15E2503</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cnc-router-market</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>SQMIG15F2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/microbial-enhanced-oil-recovery-market</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>SQMIG10C2028</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/oil-and-gas-accumulator-market</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>SQMIG15F2146</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/directional-drilling-market</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>SQMIG15F2167</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/slickline-services-market</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>SQMIG15A2414</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/flare-gas-recovery-system-market</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>SQMIG15A2434</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/semiconductor-capital-equipment-market</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>SQMIG15A2433</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-lidar-sensors-market</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>SQMIG10A2030</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-generator-market</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>SQMIG10C2031</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/advanced-functional-materials-market</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>SQMIG15A2420</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metallurgical-coal-market</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>SQMIG10A2032</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/tire-pressure-monitoring-system-market</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>SQMIG25B2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ground-engaging-tools-market</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>SQMIG55A2044</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wireless-gas-detection-market</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>SQMIG10B2105</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/articulated-robots-market</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>SQMIG55A2051</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-paint-booth-market</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>SQMIG10A2048</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/volatile-organic-compound-gas-sensor-market</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>SQMIG10A2047</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/solar-battery-market</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>SQMIG55A2050</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hospitality-robots-market</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>SQMIG25S2055</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gear-oil-market</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>SQMIG15A2438</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/sapphire-glass-market</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>SQMIG15M2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/floor-adhesive-market</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>SQMIG15E2535</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/liquid-polybutadiene-market</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>SQMIG15E2536</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/liquid-detergent-market</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>SQMIG30K2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/software-defined-data-center-market</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>SQMIG45E2197</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/archery-equipment-market</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>SQMIG25J2076</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/middle-office-outsourcing-market</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>SQMIG60D2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radar-sensor-market</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>SQMIG25A2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/speech-and-voice-recognition-market</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>SQMIG45J2063</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/enterprise-architecture-tools-market</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>SQMIG45B2066</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/air-brake-system-market</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>SQMIG25A2163</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/battery-swapping-market</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>SQMIG25A2329</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/progressive-cavity-pump-market</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>SQMIG20A2276</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-flexible-washer-market</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>SQMIG45A2376</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-wheelchairs-market</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>SQMIG25A2330</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wearable-camera-market</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>SQMIG20D2069</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vacuum-coating-equipment-market</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>SQMIG20I2181</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/parental-control-software-market</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>SQMIG50J2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/commercial-refrigeration-market</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>SQMIG20N2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-front-end-module-market</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>SQMIG25A2195</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bifacial-solar-market</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>SQMIG45O2041</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-supercharger-market</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>SQMIG25A2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-data-logger-market</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>SQMIG25A2267</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-drive-shaft-market</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>SQMIG25A2268</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/adaptive-robotics-market</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>SQMIG45A2257</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-intelligent-lighting-system-market</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>SQMIG25A2331</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-shielding-market</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>SQSG25AG2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/digital-shipyard-market</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>SQMIG20Y2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-masks-market</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>SQMIG20N2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/uav-flight-training-and-simulation-market</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>SQMIG45E2271</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radiation-dose-management-market</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>SQMIG45A2277</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/military-sensors-market</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>SQMIG25AG2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/position-sensor-market</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>SQSG45I2036</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/workplace-safety-market</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>SQMIG20P2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/payment-security-market</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>SQMIG20I2192</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/string-inverter-market</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>SQMIG20E2043</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-ignition-system-market</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>SQMIG20D2210</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/scooter-sharing-market</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>SQMIG20V2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/micro-mobility-market</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>SQMIG25A2063</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-smart-display-market</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>SQMIG25A2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/okr-software-market</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>SQMIG45A2054</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robo-advisory-market</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>SQMIG45E2136</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-fuel-tank-market</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>SQMIG25A2161</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/dynamic-positioning-system-market</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>SQMIG20A2042</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metallic-stearate-market</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>SQMIG15F2064</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/educational-robot-market</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>SQMIG25A2332</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/Automotive-knock-sensor-market</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>SQMIG45O2048</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/waste-heat-recovery-system-market</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>SQMIG20I2106</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/government-cloud-market</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>SQMIG45D2102</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/marine-engine-market</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>SQMIG25A2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/enterprise-information-archiving-market</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>SQMIG45A2348</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cloud-enterprise-application-software-market</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>SQMIG45A2319</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/small-caliber-ammunition-market</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>SQSG20A2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/3d-printing-in-healthcare-market</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>SQMIG20C2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/integrated-marine-automation-system-market</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>SQMIG20T2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/earthing-equipment-market</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>SQMIG20E2087</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/low-voltage-switchgear-market</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>SQMIG20E2089</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-3d-printing-market</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>SQMIG20I2253</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/drone-software-market</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>SQSG45E2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/paralleling-switchgear-market</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>SQMIG20E2083</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pure-play-software-testing-services-market</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>SQSG45B2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/process-mining-software-market</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>SQMIG45F2127</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/waterjet-cutting-machine-market</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>SQMIG20I2283</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/transformer-monitoring-system-market</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>SQMIG45J2182</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-3d-printing-market</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>SQMIG45E2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/aircraft-communication-system-market</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>SQMIG20A2206</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fertility-test-market</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>SQMIG45A2234</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/traffic-sensor-market</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>SQMIG45J2200</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/broadcasting-equipment-market</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>SQMIG45H2059</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-intercooler-market</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>SQMIG25A2274</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/tunable-laser-market</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>SQMIG45J2224</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-garage-equipment-market</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>SQMIG25A2284</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-battery-market</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>SQMIG25A2333</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/poultry-feed-market</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>SQSG30C2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/commercial-seaweed-market</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>SQMIG30H2145</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/advanced-composites-market</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>SQMIG15B2033</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metal-recycling-market</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>SQMIG15J2068</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/collagen-and-gelatin-market</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>SQMIG15A2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/intumescent-coatings-market</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>SQMIG15A2115</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ethane-market</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>SQMIG15E2166</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/super-absorbent-polymers-market</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>SQMIG15E2130</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/rfid-printer-market</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>SQMIG25E2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/soy-protein-ingredients-market</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>SQMIG30C2095</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/organic-pesticides-market</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>SQMIG15A2370</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/new-energy-vehicle-taxi-market</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>SQMIG25E2114</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/acetic-anhydride-market</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>SQMIG15A2425</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/stick-packaging-market</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>SQMIG15H2061</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/potassium-formate-market</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>SQMIG15A2409</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/water-softeners-market</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>SQMIG15E2514</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/polycarbonate-sheets-market</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>SQMIG15G2087</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ethylene-dichloride-market</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>SQMIG15A2411</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/diisononyl-phthalate-market</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>SQMIG15E2480</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/oil-condition-monitoring-market</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>SQMIG10B2091</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/boiler-control-market</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>SQMIG15A2415</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/superconducting-wire-market</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>SQMIG10A2041</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/temporary-power-market</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>SQMIG55E2041</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/inventory-tags-market</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>SQMIG15Q2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ammonium-carbonate-market</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>SQMIG15A2406</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/antiscalants-scale-inhibitors-market</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>SQMIG15E2506</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/lactoferrin-market</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>SQMIG30I2351</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radio-access-network-market</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>SQMIG45H2040</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-robotics-market</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>SQMIG30C2155</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ground-support-equipment-market</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>SQMIG20A2215</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
           <t>https://www.skyquestt.com/report/mobile-robots-market</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B555" t="inlineStr">
         <is>
           <t>SQMIG25A2296</t>
         </is>
